--- a/capiq_data/in_process_data/IQ278576.xlsx
+++ b/capiq_data/in_process_data/IQ278576.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB8220-5A3A-49F2-BBE6-B9E2F82E513F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A8BE8-1988-4A35-9DCB-C51E2076B966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c3ee7b17-c62c-42bb-bbd5-bcb57541a334"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ab2c8f3c-df98-46dc-855e-e0333f21bdad"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>57.853000000000002</v>
+        <v>10.885</v>
       </c>
       <c r="D2">
-        <v>1020.0119999999999</v>
+        <v>533.96900000000005</v>
       </c>
       <c r="E2">
-        <v>351.18700000000001</v>
+        <v>225.797</v>
       </c>
       <c r="F2">
-        <v>176.23099999999999</v>
+        <v>79.055999999999997</v>
       </c>
       <c r="G2">
-        <v>462.64499999999998</v>
+        <v>330.971</v>
       </c>
       <c r="H2">
-        <v>1961.66</v>
+        <v>1231.921</v>
       </c>
       <c r="I2">
-        <v>192.10300000000001</v>
+        <v>158.58500000000001</v>
       </c>
       <c r="J2">
-        <v>454.20699999999999</v>
+        <v>222.69399999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,161 +892,161 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>509.94900000000001</v>
+        <v>319.15300000000002</v>
       </c>
       <c r="O2">
-        <v>1388.6389999999999</v>
+        <v>814.09699999999998</v>
       </c>
       <c r="P2">
-        <v>654.20699999999999</v>
+        <v>401.27699999999999</v>
       </c>
       <c r="Q2">
-        <v>-60.908999999999999</v>
+        <v>-3.7770000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>15223</v>
+        <v>15980</v>
       </c>
       <c r="T2">
-        <v>573.02099999999996</v>
+        <v>417.82400000000001</v>
       </c>
       <c r="U2">
-        <v>7.6509999999999998</v>
+        <v>5.37</v>
       </c>
       <c r="V2">
-        <v>97.840999999999994</v>
+        <v>28.422000000000001</v>
       </c>
       <c r="W2">
-        <v>-14.805</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-78.143000000000001</v>
+        <v>-35.886000000000003</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>77.694000000000003</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>57.853000000000002</v>
+        <v>10.885</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>50.094999999999999</v>
+        <v>1.645</v>
       </c>
       <c r="D3">
-        <v>1000.78</v>
+        <v>495.41899999999998</v>
       </c>
       <c r="E3">
-        <v>402.92200000000003</v>
+        <v>216.715</v>
       </c>
       <c r="F3">
-        <v>164.55500000000001</v>
+        <v>63.798000000000002</v>
       </c>
       <c r="G3">
-        <v>475.56700000000001</v>
+        <v>321.798</v>
       </c>
       <c r="H3">
-        <v>2040.3720000000001</v>
+        <v>1209.845</v>
       </c>
       <c r="I3">
-        <v>249.73</v>
+        <v>135.90600000000001</v>
       </c>
       <c r="J3">
-        <v>649.24900000000002</v>
+        <v>222.85499999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-74.400000000000006</v>
       </c>
       <c r="M3">
-        <v>-365.6</v>
+        <v>-4.5129999999999999</v>
       </c>
       <c r="N3">
-        <v>424.97699999999998</v>
+        <v>282.96499999999997</v>
       </c>
       <c r="O3">
-        <v>1481.106</v>
+        <v>779.59900000000005</v>
       </c>
       <c r="P3">
-        <v>698.24900000000002</v>
+        <v>400.95100000000002</v>
       </c>
       <c r="Q3">
-        <v>-2.258</v>
+        <v>13.853999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>559.26599999999996</v>
+        <v>430.24599999999998</v>
       </c>
       <c r="U3">
-        <v>5.3929999999999998</v>
+        <v>19.224</v>
       </c>
       <c r="V3">
-        <v>136.583</v>
+        <v>27.233000000000001</v>
       </c>
       <c r="W3">
-        <v>-15.752000000000001</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-26.483000000000001</v>
+        <v>-25.925000000000001</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>95.34</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>50.094999999999999</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>65.695999999999998</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="D4">
-        <v>1149.855</v>
+        <v>521.48900000000003</v>
       </c>
       <c r="E4">
-        <v>440.755</v>
+        <v>229.00700000000001</v>
       </c>
       <c r="F4">
-        <v>192.03399999999999</v>
+        <v>78.335999999999999</v>
       </c>
       <c r="G4">
-        <v>508.15100000000001</v>
+        <v>324.79000000000002</v>
       </c>
       <c r="H4">
-        <v>2120.8609999999999</v>
+        <v>1199.28</v>
       </c>
       <c r="I4">
-        <v>270.96100000000001</v>
+        <v>128.21899999999999</v>
       </c>
       <c r="J4">
-        <v>649.29200000000003</v>
+        <v>222.886</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>446.13400000000001</v>
+        <v>236.78899999999999</v>
       </c>
       <c r="O4">
-        <v>1522.5219999999999</v>
+        <v>757.07899999999995</v>
       </c>
       <c r="P4">
-        <v>664.29200000000003</v>
+        <v>377.79</v>
       </c>
       <c r="Q4">
-        <v>5.7560000000000002</v>
+        <v>3.266</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>598.33900000000006</v>
+        <v>442.20100000000002</v>
       </c>
       <c r="U4">
-        <v>11.148999999999999</v>
+        <v>22.49</v>
       </c>
       <c r="V4">
-        <v>171.09</v>
+        <v>41.164999999999999</v>
       </c>
       <c r="W4">
-        <v>-15.641</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-66.814999999999998</v>
+        <v>-57.274999999999999</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>118.527</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>65.695999999999998</v>
+        <v>8.5679999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>68.650000000000006</v>
+        <v>4.55</v>
       </c>
       <c r="D5">
-        <v>1171.27</v>
+        <v>537.15599999999995</v>
       </c>
       <c r="E5">
-        <v>424.63400000000001</v>
+        <v>247.20599999999999</v>
       </c>
       <c r="F5">
-        <v>197.33500000000001</v>
+        <v>76.298000000000002</v>
       </c>
       <c r="G5">
-        <v>477.39</v>
+        <v>371.74400000000003</v>
       </c>
       <c r="H5">
-        <v>2162.6559999999999</v>
+        <v>1238.0419999999999</v>
       </c>
       <c r="I5">
-        <v>275.673</v>
+        <v>141.50299999999999</v>
       </c>
       <c r="J5">
-        <v>718.03399999999999</v>
+        <v>222.91800000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>487.21499999999997</v>
+        <v>251.358</v>
       </c>
       <c r="O5">
-        <v>1665.0250000000001</v>
+        <v>787.90200000000004</v>
       </c>
       <c r="P5">
-        <v>768.03399999999999</v>
+        <v>400.65899999999999</v>
       </c>
       <c r="Q5">
-        <v>-3.4020000000000001</v>
+        <v>40.673000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>497.63099999999997</v>
+        <v>450.14</v>
       </c>
       <c r="U5">
-        <v>7.7469999999999999</v>
+        <v>63.162999999999997</v>
       </c>
       <c r="V5">
-        <v>180.536</v>
+        <v>52.859000000000002</v>
       </c>
       <c r="W5">
-        <v>-15.657999999999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-70.899000000000001</v>
+        <v>-5.8360000000000003</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>136.327</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>68.650000000000006</v>
+        <v>4.5490000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>72.564999999999998</v>
+        <v>18.181999999999999</v>
       </c>
       <c r="D6">
-        <v>1204.9369999999999</v>
+        <v>546.24</v>
       </c>
       <c r="E6">
-        <v>411.47899999999998</v>
+        <v>233.24600000000001</v>
       </c>
       <c r="F6">
-        <v>205.95</v>
+        <v>90.811000000000007</v>
       </c>
       <c r="G6">
-        <v>513.54200000000003</v>
+        <v>384.79899999999998</v>
       </c>
       <c r="H6">
-        <v>2267.3319999999999</v>
+        <v>1260.298</v>
       </c>
       <c r="I6">
-        <v>251.625</v>
+        <v>163.291</v>
       </c>
       <c r="J6">
-        <v>699.17700000000002</v>
+        <v>212.95</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>438.51499999999999</v>
+        <v>265.834</v>
       </c>
       <c r="O6">
-        <v>1699.789</v>
+        <v>801.98099999999999</v>
       </c>
       <c r="P6">
-        <v>749.17700000000002</v>
+        <v>392.03300000000002</v>
       </c>
       <c r="Q6">
-        <v>-2.2970000000000002</v>
+        <v>-13.917999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>15631</v>
+        <v>16380</v>
       </c>
       <c r="T6">
-        <v>567.54300000000001</v>
+        <v>458.31700000000001</v>
       </c>
       <c r="U6">
-        <v>5.45</v>
+        <v>49.244999999999997</v>
       </c>
       <c r="V6">
-        <v>147.483</v>
+        <v>50.341999999999999</v>
       </c>
       <c r="W6">
-        <v>-15.192</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-28.167000000000002</v>
+        <v>-14.445</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>140.65700000000001</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>72.564999999999998</v>
+        <v>18.181999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>67.683999999999997</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="D7">
-        <v>1165.922</v>
+        <v>510.221</v>
       </c>
       <c r="E7">
-        <v>447.70600000000002</v>
+        <v>226.232</v>
       </c>
       <c r="F7">
-        <v>194.899</v>
+        <v>73.373999999999995</v>
       </c>
       <c r="G7">
-        <v>536.08600000000001</v>
+        <v>329.548</v>
       </c>
       <c r="H7">
-        <v>2322.8620000000001</v>
+        <v>1220.5550000000001</v>
       </c>
       <c r="I7">
-        <v>301.63600000000002</v>
+        <v>111.684</v>
       </c>
       <c r="J7">
-        <v>602.11900000000003</v>
+        <v>212.98099999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-383.30399999999997</v>
+        <v>-6.7229999999999999</v>
       </c>
       <c r="N7">
-        <v>543.41999999999996</v>
+        <v>228.642</v>
       </c>
       <c r="O7">
-        <v>1692.566</v>
+        <v>748.06200000000001</v>
       </c>
       <c r="P7">
-        <v>702.11900000000003</v>
+        <v>408.34100000000001</v>
       </c>
       <c r="Q7">
-        <v>0.26300000000000001</v>
+        <v>-36.841000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>630.29600000000005</v>
+        <v>472.49299999999999</v>
       </c>
       <c r="U7">
-        <v>5.7130000000000001</v>
+        <v>12.404</v>
       </c>
       <c r="V7">
-        <v>146.27199999999999</v>
+        <v>3.714</v>
       </c>
       <c r="W7">
-        <v>-16.385999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-62.243000000000002</v>
+        <v>13.978</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>133.476</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>67.683999999999997</v>
+        <v>4.8540000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>80.451999999999998</v>
+        <v>15.478999999999999</v>
       </c>
       <c r="D8">
-        <v>1255.1300000000001</v>
+        <v>557.32799999999997</v>
       </c>
       <c r="E8">
-        <v>472.077</v>
+        <v>246.81800000000001</v>
       </c>
       <c r="F8">
-        <v>219.71600000000001</v>
+        <v>94.625</v>
       </c>
       <c r="G8">
-        <v>540.42499999999995</v>
+        <v>406.80799999999999</v>
       </c>
       <c r="H8">
-        <v>2365.2759999999998</v>
+        <v>1289.9069999999999</v>
       </c>
       <c r="I8">
-        <v>298.58699999999999</v>
+        <v>120.53100000000001</v>
       </c>
       <c r="J8">
-        <v>579.46199999999999</v>
+        <v>202.76300000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>524.36099999999999</v>
+        <v>230.85300000000001</v>
       </c>
       <c r="O8">
-        <v>1652.0029999999999</v>
+        <v>733.17100000000005</v>
       </c>
       <c r="P8">
-        <v>679.46199999999999</v>
+        <v>368.33</v>
       </c>
       <c r="Q8">
-        <v>0.17399999999999999</v>
+        <v>67.92</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>713.27300000000002</v>
+        <v>556.73599999999999</v>
       </c>
       <c r="U8">
-        <v>5.8869999999999996</v>
+        <v>80.323999999999998</v>
       </c>
       <c r="V8">
-        <v>114.307</v>
+        <v>68.867999999999995</v>
       </c>
       <c r="W8">
-        <v>-16.393999999999998</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-27.042999999999999</v>
+        <v>27.98</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>126.212</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>80.450999999999993</v>
+        <v>15.478999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>78.241</v>
+        <v>16.756</v>
       </c>
       <c r="D9">
-        <v>1295.7919999999999</v>
+        <v>582.67100000000005</v>
       </c>
       <c r="E9">
-        <v>504.25200000000001</v>
+        <v>253.93199999999999</v>
       </c>
       <c r="F9">
-        <v>221.39</v>
+        <v>94.036000000000001</v>
       </c>
       <c r="G9">
-        <v>563.25699999999995</v>
+        <v>414.42599999999999</v>
       </c>
       <c r="H9">
-        <v>2438.3420000000001</v>
+        <v>1298.9159999999999</v>
       </c>
       <c r="I9">
-        <v>328.75700000000001</v>
+        <v>119.282</v>
       </c>
       <c r="J9">
-        <v>544.904</v>
+        <v>114.78400000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>548.67499999999995</v>
+        <v>313.476</v>
       </c>
       <c r="O9">
-        <v>1657.152</v>
+        <v>724.48</v>
       </c>
       <c r="P9">
-        <v>644.904</v>
+        <v>361.37</v>
       </c>
       <c r="Q9">
-        <v>-0.22800000000000001</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>781.19</v>
+        <v>574.43600000000004</v>
       </c>
       <c r="U9">
-        <v>5.6589999999999998</v>
+        <v>85.760999999999996</v>
       </c>
       <c r="V9">
-        <v>156.76</v>
+        <v>49.984000000000002</v>
       </c>
       <c r="W9">
-        <v>-16.545000000000002</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-48.436999999999998</v>
+        <v>-6.1859999999999999</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>119.444</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>78.241</v>
+        <v>16.756</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>83.977000000000004</v>
+        <v>14.727</v>
       </c>
       <c r="D10">
-        <v>1338.136</v>
+        <v>597.66499999999996</v>
       </c>
       <c r="E10">
-        <v>466.01100000000002</v>
+        <v>237.15600000000001</v>
       </c>
       <c r="F10">
-        <v>233.886</v>
+        <v>103.732</v>
       </c>
       <c r="G10">
-        <v>554.53200000000004</v>
+        <v>433.18099999999998</v>
       </c>
       <c r="H10">
-        <v>2464.6410000000001</v>
+        <v>1318.7280000000001</v>
       </c>
       <c r="I10">
-        <v>266.72199999999998</v>
+        <v>117.931</v>
       </c>
       <c r="J10">
-        <v>585.34699999999998</v>
+        <v>104.815</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>502.76</v>
+        <v>325.32900000000001</v>
       </c>
       <c r="O10">
-        <v>1672.7809999999999</v>
+        <v>728.24099999999999</v>
       </c>
       <c r="P10">
-        <v>685.34699999999998</v>
+        <v>343.11500000000001</v>
       </c>
       <c r="Q10">
-        <v>-7.0000000000000007E-2</v>
+        <v>-5.133</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>16475</v>
+        <v>16265</v>
       </c>
       <c r="T10">
-        <v>791.86</v>
+        <v>590.48699999999997</v>
       </c>
       <c r="U10">
-        <v>5.5890000000000004</v>
+        <v>80.628</v>
       </c>
       <c r="V10">
-        <v>130.70500000000001</v>
+        <v>51.796999999999997</v>
       </c>
       <c r="W10">
-        <v>-34.106000000000002</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-40.588000000000001</v>
+        <v>-17.32</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>114.152</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>83.977000000000004</v>
+        <v>14.727</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>73.349000000000004</v>
+        <v>11.178000000000001</v>
       </c>
       <c r="D11">
-        <v>1291.587</v>
+        <v>571.21299999999997</v>
       </c>
       <c r="E11">
-        <v>529.33299999999997</v>
+        <v>257.02300000000002</v>
       </c>
       <c r="F11">
-        <v>217.03700000000001</v>
+        <v>94.926000000000002</v>
       </c>
       <c r="G11">
-        <v>615.19799999999998</v>
+        <v>434.78199999999998</v>
       </c>
       <c r="H11">
-        <v>2586.1190000000001</v>
+        <v>1313.163</v>
       </c>
       <c r="I11">
-        <v>374.96800000000002</v>
+        <v>123.07599999999999</v>
       </c>
       <c r="J11">
-        <v>393.28899999999999</v>
+        <v>104.846</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-395.6</v>
+        <v>-7.3970000000000002</v>
       </c>
       <c r="N11">
-        <v>727.221</v>
+        <v>305.32</v>
       </c>
       <c r="O11">
-        <v>1710.347</v>
+        <v>710.82899999999995</v>
       </c>
       <c r="P11">
-        <v>593.28899999999999</v>
+        <v>335.64499999999998</v>
       </c>
       <c r="Q11">
-        <v>0.158</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>875.77200000000005</v>
+        <v>602.33399999999995</v>
       </c>
       <c r="U11">
-        <v>5.7469999999999999</v>
+        <v>84.278999999999996</v>
       </c>
       <c r="V11">
-        <v>206.75899999999999</v>
+        <v>41.945</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-91.531000000000006</v>
+        <v>-6.9619999999999997</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>110.81399999999999</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>73.349000000000004</v>
+        <v>11.178000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>87.695999999999998</v>
+        <v>25.129000000000001</v>
       </c>
       <c r="D12">
-        <v>1382.8579999999999</v>
+        <v>599.86599999999999</v>
       </c>
       <c r="E12">
-        <v>579.64300000000003</v>
+        <v>257.67500000000001</v>
       </c>
       <c r="F12">
-        <v>242.268</v>
+        <v>119.989</v>
       </c>
       <c r="G12">
-        <v>651.56200000000001</v>
+        <v>454.66699999999997</v>
       </c>
       <c r="H12">
-        <v>2656.3159999999998</v>
+        <v>1337.501</v>
       </c>
       <c r="I12">
-        <v>364.19499999999999</v>
+        <v>101.45099999999999</v>
       </c>
       <c r="J12">
-        <v>474.13200000000001</v>
+        <v>104.877</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>699.10599999999999</v>
+        <v>378.44499999999999</v>
       </c>
       <c r="O12">
-        <v>1754.077</v>
+        <v>705.22</v>
       </c>
       <c r="P12">
-        <v>674.13199999999995</v>
+        <v>322.846</v>
       </c>
       <c r="Q12">
-        <v>0.17599999999999999</v>
+        <v>44.054000000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>902.23900000000003</v>
+        <v>632.28099999999995</v>
       </c>
       <c r="U12">
-        <v>5.923</v>
+        <v>128.333</v>
       </c>
       <c r="V12">
-        <v>86.811999999999998</v>
+        <v>96.861999999999995</v>
       </c>
       <c r="W12">
-        <v>-17.555</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>9.9870000000000001</v>
+        <v>-4.8849999999999998</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>21.762</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>87.697000000000003</v>
+        <v>25.129000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>89.472999999999999</v>
+        <v>32.661000000000001</v>
       </c>
       <c r="D13">
-        <v>1435.85</v>
+        <v>621.64400000000001</v>
       </c>
       <c r="E13">
-        <v>584.91399999999999</v>
+        <v>266.08800000000002</v>
       </c>
       <c r="F13">
-        <v>247.238</v>
+        <v>125.93300000000001</v>
       </c>
       <c r="G13">
-        <v>648.03200000000004</v>
+        <v>416.80700000000002</v>
       </c>
       <c r="H13">
-        <v>2712.4340000000002</v>
+        <v>1297.29</v>
       </c>
       <c r="I13">
-        <v>304.79899999999998</v>
+        <v>109.748</v>
       </c>
       <c r="J13">
-        <v>437.47399999999999</v>
+        <v>9.9090000000000007</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>690.33799999999997</v>
+        <v>399.49900000000002</v>
       </c>
       <c r="O13">
-        <v>1731.9570000000001</v>
+        <v>621.601</v>
       </c>
       <c r="P13">
-        <v>687.47400000000005</v>
+        <v>204.72800000000001</v>
       </c>
       <c r="Q13">
-        <v>4.4999999999999998E-2</v>
+        <v>-35.164000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>980.47699999999998</v>
+        <v>675.68899999999996</v>
       </c>
       <c r="U13">
-        <v>5.968</v>
+        <v>93.168999999999997</v>
       </c>
       <c r="V13">
-        <v>117.657</v>
+        <v>112.301</v>
       </c>
       <c r="W13">
-        <v>-17.670999999999999</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4.3540000000000001</v>
+        <v>-117.01</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>89.471999999999994</v>
+        <v>32.661000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>91.864000000000004</v>
+        <v>26.491</v>
       </c>
       <c r="D14">
-        <v>1474.2760000000001</v>
+        <v>640.74599999999998</v>
       </c>
       <c r="E14">
-        <v>568.51900000000001</v>
+        <v>256.03199999999998</v>
       </c>
       <c r="F14">
-        <v>256.48</v>
+        <v>126.48099999999999</v>
       </c>
       <c r="G14">
-        <v>680.20299999999997</v>
+        <v>428.98700000000002</v>
       </c>
       <c r="H14">
-        <v>2819.404</v>
+        <v>1356.172</v>
       </c>
       <c r="I14">
-        <v>305.46499999999997</v>
+        <v>158.886</v>
       </c>
       <c r="J14">
-        <v>458.41699999999997</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>712.29600000000005</v>
+        <v>434.75099999999998</v>
       </c>
       <c r="O14">
-        <v>1806.952</v>
+        <v>653.03599999999994</v>
       </c>
       <c r="P14">
-        <v>708.41700000000003</v>
+        <v>171.77699999999999</v>
       </c>
       <c r="Q14">
-        <v>-0.13700000000000001</v>
+        <v>-33.058999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>18467</v>
+        <v>15700</v>
       </c>
       <c r="T14">
-        <v>1012.452</v>
+        <v>703.13599999999997</v>
       </c>
       <c r="U14">
-        <v>5.8310000000000004</v>
+        <v>58.112000000000002</v>
       </c>
       <c r="V14">
-        <v>163.12299999999999</v>
+        <v>81.503</v>
       </c>
       <c r="W14">
-        <v>-17.585000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-54.378</v>
+        <v>-32.634999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>91.864000000000004</v>
+        <v>26.491</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>68.664000000000001</v>
+        <v>32.973999999999997</v>
       </c>
       <c r="D15">
-        <v>1406.9079999999999</v>
+        <v>617.69799999999998</v>
       </c>
       <c r="E15">
-        <v>635.11099999999999</v>
+        <v>268.49900000000002</v>
       </c>
       <c r="F15">
-        <v>221.00399999999999</v>
+        <v>125.581</v>
       </c>
       <c r="G15">
-        <v>842.06799999999998</v>
+        <v>400.19600000000003</v>
       </c>
       <c r="H15">
-        <v>3115.7249999999999</v>
+        <v>1354.4069999999999</v>
       </c>
       <c r="I15">
-        <v>371.23500000000001</v>
+        <v>143.154</v>
       </c>
       <c r="J15">
-        <v>752.20699999999999</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-757.07799999999997</v>
+        <v>-26.984999999999999</v>
       </c>
       <c r="N15">
-        <v>662.80399999999997</v>
+        <v>382.93900000000002</v>
       </c>
       <c r="O15">
-        <v>2047.6</v>
+        <v>616.48599999999999</v>
       </c>
       <c r="P15">
-        <v>852.20699999999999</v>
+        <v>144.816</v>
       </c>
       <c r="Q15">
-        <v>118.381</v>
+        <v>-25.998999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1068.125</v>
+        <v>737.92100000000005</v>
       </c>
       <c r="U15">
-        <v>124.212</v>
+        <v>35.808</v>
       </c>
       <c r="V15">
-        <v>159.04499999999999</v>
+        <v>70.293999999999997</v>
       </c>
       <c r="W15">
-        <v>-23.45</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>117.548</v>
+        <v>-26.135999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>68.664000000000001</v>
+        <v>32.973999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>93.406999999999996</v>
+        <v>45.625</v>
       </c>
       <c r="D16">
-        <v>1547.867</v>
+        <v>679.03599999999994</v>
       </c>
       <c r="E16">
-        <v>667.62</v>
+        <v>276.02199999999999</v>
       </c>
       <c r="F16">
-        <v>272.03899999999999</v>
+        <v>146.51300000000001</v>
       </c>
       <c r="G16">
-        <v>739.22500000000002</v>
+        <v>388.56099999999998</v>
       </c>
       <c r="H16">
-        <v>3091.3589999999999</v>
+        <v>1391.3009999999999</v>
       </c>
       <c r="I16">
-        <v>338.06299999999999</v>
+        <v>127.514</v>
       </c>
       <c r="J16">
-        <v>874.02800000000002</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>514.63400000000001</v>
+        <v>360.89</v>
       </c>
       <c r="O16">
-        <v>2010.242</v>
+        <v>607.41999999999996</v>
       </c>
       <c r="P16">
-        <v>874.02800000000002</v>
+        <v>126.58199999999999</v>
       </c>
       <c r="Q16">
-        <v>-118.342</v>
+        <v>5.3150000000000004</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1081.117</v>
+        <v>783.88099999999997</v>
       </c>
       <c r="U16">
-        <v>5.87</v>
+        <v>41.686</v>
       </c>
       <c r="V16">
-        <v>141.95599999999999</v>
+        <v>116.20699999999999</v>
       </c>
       <c r="W16">
-        <v>-23.297000000000001</v>
+        <v>-2.4140000000000001</v>
       </c>
       <c r="X16">
-        <v>-65.667000000000002</v>
+        <v>-25.826000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>93.408000000000001</v>
+        <v>45.625</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>102.41500000000001</v>
+        <v>47.875</v>
       </c>
       <c r="D17">
-        <v>1601.1559999999999</v>
+        <v>718.61400000000003</v>
       </c>
       <c r="E17">
-        <v>671.298</v>
+        <v>309.20100000000002</v>
       </c>
       <c r="F17">
-        <v>294.37</v>
+        <v>154.072</v>
       </c>
       <c r="G17">
-        <v>737.678</v>
+        <v>408.77499999999998</v>
       </c>
       <c r="H17">
-        <v>3158.9180000000001</v>
+        <v>1405.7850000000001</v>
       </c>
       <c r="I17">
-        <v>352.64499999999998</v>
+        <v>139.595</v>
       </c>
       <c r="J17">
-        <v>589.774</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>790.29200000000003</v>
+        <v>304.45999999999998</v>
       </c>
       <c r="O17">
-        <v>1999.0989999999999</v>
+        <v>567.79600000000005</v>
       </c>
       <c r="P17">
-        <v>839.774</v>
+        <v>50</v>
       </c>
       <c r="Q17">
-        <v>-1.0999999999999999E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1159.819</v>
+        <v>837.98900000000003</v>
       </c>
       <c r="U17">
-        <v>5.859</v>
+        <v>41.819000000000003</v>
       </c>
       <c r="V17">
-        <v>185.364</v>
+        <v>103.745</v>
       </c>
       <c r="W17">
-        <v>-23.42</v>
+        <v>-2.4329999999999998</v>
       </c>
       <c r="X17">
-        <v>-59.014000000000003</v>
+        <v>-75.105000000000004</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>102.414</v>
+        <v>47.875</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>110.306</v>
+        <v>19.782</v>
       </c>
       <c r="D18">
-        <v>1609.511</v>
+        <v>770.80499999999995</v>
       </c>
       <c r="E18">
-        <v>653.79499999999996</v>
+        <v>289.14600000000002</v>
       </c>
       <c r="F18">
-        <v>309.08199999999999</v>
+        <v>162.06899999999999</v>
       </c>
       <c r="G18">
-        <v>861.49900000000002</v>
+        <v>474.92</v>
       </c>
       <c r="H18">
-        <v>3378.4859999999999</v>
+        <v>1502.5840000000001</v>
       </c>
       <c r="I18">
-        <v>325.83800000000002</v>
+        <v>190.89599999999999</v>
       </c>
       <c r="J18">
-        <v>683.53899999999999</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>771.07</v>
+        <v>319.09899999999999</v>
       </c>
       <c r="O18">
-        <v>2173.9630000000002</v>
+        <v>641.63400000000001</v>
       </c>
       <c r="P18">
-        <v>933.53899999999999</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.10199999999999999</v>
+        <v>-2.5419999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>20158</v>
+        <v>15850</v>
       </c>
       <c r="T18">
-        <v>1204.5229999999999</v>
+        <v>860.95</v>
       </c>
       <c r="U18">
-        <v>5.9610000000000003</v>
+        <v>34.716000000000001</v>
       </c>
       <c r="V18">
-        <v>160.41399999999999</v>
+        <v>114.369</v>
       </c>
       <c r="W18">
-        <v>-23.437000000000001</v>
+        <v>-2.4409999999999998</v>
       </c>
       <c r="X18">
-        <v>20.164999999999999</v>
+        <v>-51.048000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>110.306</v>
+        <v>19.782</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>91.932000000000002</v>
+        <v>47.499000000000002</v>
       </c>
       <c r="D19">
-        <v>1440.18</v>
+        <v>709.178</v>
       </c>
       <c r="E19">
-        <v>631.17200000000003</v>
+        <v>300.11099999999999</v>
       </c>
       <c r="F19">
-        <v>278.04700000000003</v>
+        <v>148.828</v>
       </c>
       <c r="G19">
-        <v>803.51199999999994</v>
+        <v>444.41</v>
       </c>
       <c r="H19">
-        <v>3428.9969999999998</v>
+        <v>1478.761</v>
       </c>
       <c r="I19">
-        <v>328.11099999999999</v>
+        <v>161.733</v>
       </c>
       <c r="J19">
-        <v>628.20299999999997</v>
+        <v>68</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-505.07100000000003</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>762.33100000000002</v>
+        <v>271.37</v>
       </c>
       <c r="O19">
-        <v>2151.6170000000002</v>
+        <v>678.35299999999995</v>
       </c>
       <c r="P19">
-        <v>878.20299999999997</v>
+        <v>68</v>
       </c>
       <c r="Q19">
-        <v>-0.314</v>
+        <v>-32.762999999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1277.3800000000001</v>
+        <v>800.40800000000002</v>
       </c>
       <c r="U19">
-        <v>5.6459999999999999</v>
+        <v>1.952</v>
       </c>
       <c r="V19">
-        <v>255.54300000000001</v>
+        <v>55.267000000000003</v>
       </c>
       <c r="W19">
-        <v>-24.468</v>
+        <v>-9.7230000000000008</v>
       </c>
       <c r="X19">
-        <v>-94.513000000000005</v>
+        <v>-41.234999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>91.932000000000002</v>
+        <v>47.499000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>103.419</v>
+        <v>54.631</v>
       </c>
       <c r="D20">
-        <v>1539.9570000000001</v>
+        <v>759.20600000000002</v>
       </c>
       <c r="E20">
-        <v>665.24099999999999</v>
+        <v>311.79899999999998</v>
       </c>
       <c r="F20">
-        <v>314.00700000000001</v>
+        <v>166.25700000000001</v>
       </c>
       <c r="G20">
-        <v>786.63</v>
+        <v>426.649</v>
       </c>
       <c r="H20">
-        <v>3485.35</v>
+        <v>1465.547</v>
       </c>
       <c r="I20">
-        <v>341.52</v>
+        <v>139.548</v>
       </c>
       <c r="J20">
-        <v>643.202</v>
+        <v>67.3</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>776.60500000000002</v>
+        <v>265.62799999999999</v>
       </c>
       <c r="O20">
-        <v>2146.145</v>
+        <v>629.71</v>
       </c>
       <c r="P20">
-        <v>893.202</v>
+        <v>67.3</v>
       </c>
       <c r="Q20">
-        <v>-6.0999999999999999E-2</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1339.2049999999999</v>
+        <v>835.83699999999999</v>
       </c>
       <c r="U20">
-        <v>5.5860000000000003</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="V20">
-        <v>197.994</v>
+        <v>75.956999999999994</v>
       </c>
       <c r="W20">
-        <v>-24.477</v>
+        <v>-9.51</v>
       </c>
       <c r="X20">
-        <v>-40.055999999999997</v>
+        <v>-27.010999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>103.419</v>
+        <v>54.631</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>115.139</v>
+        <v>39.843000000000004</v>
       </c>
       <c r="D21">
-        <v>1586.4939999999999</v>
+        <v>801.14</v>
       </c>
       <c r="E21">
-        <v>671.39800000000002</v>
+        <v>329.97199999999998</v>
       </c>
       <c r="F21">
-        <v>325.67399999999998</v>
+        <v>171.249</v>
       </c>
       <c r="G21">
-        <v>768.17100000000005</v>
+        <v>432.90100000000001</v>
       </c>
       <c r="H21">
-        <v>3519.2640000000001</v>
+        <v>1490.06</v>
       </c>
       <c r="I21">
-        <v>355.67099999999999</v>
+        <v>195.15799999999999</v>
       </c>
       <c r="J21">
-        <v>993.35299999999995</v>
+        <v>75.7</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>544.048</v>
+        <v>317.79899999999998</v>
       </c>
       <c r="O21">
-        <v>2270.0770000000002</v>
+        <v>701.16200000000003</v>
       </c>
       <c r="P21">
-        <v>993.35299999999995</v>
+        <v>75.7</v>
       </c>
       <c r="Q21">
-        <v>-4.3999999999999997E-2</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1249.1869999999999</v>
+        <v>788.89800000000002</v>
       </c>
       <c r="U21">
-        <v>5.5419999999999998</v>
+        <v>3.738</v>
       </c>
       <c r="V21">
-        <v>243.423</v>
+        <v>147.727</v>
       </c>
       <c r="W21">
-        <v>-24.35</v>
+        <v>-9.4540000000000006</v>
       </c>
       <c r="X21">
-        <v>-112.05500000000001</v>
+        <v>-80.656999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>115.139</v>
+        <v>39.843000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>116.745</v>
+        <v>65.337999999999994</v>
       </c>
       <c r="D22">
-        <v>1621.0150000000001</v>
+        <v>858.375</v>
       </c>
       <c r="E22">
-        <v>624.29399999999998</v>
+        <v>343.50099999999998</v>
       </c>
       <c r="F22">
-        <v>326.87200000000001</v>
+        <v>183.43299999999999</v>
       </c>
       <c r="G22">
-        <v>857.92499999999995</v>
+        <v>474.69</v>
       </c>
       <c r="H22">
-        <v>3629.5439999999999</v>
+        <v>1548.874</v>
       </c>
       <c r="I22">
-        <v>340.33199999999999</v>
+        <v>162.749</v>
       </c>
       <c r="J22">
-        <v>998.00300000000004</v>
+        <v>124</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>532.41700000000003</v>
+        <v>276.08600000000001</v>
       </c>
       <c r="O22">
-        <v>2329.192</v>
+        <v>731.84900000000005</v>
       </c>
       <c r="P22">
-        <v>998.00300000000004</v>
+        <v>124</v>
       </c>
       <c r="Q22">
-        <v>2.4E-2</v>
+        <v>-7.2039999999999997</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>21562</v>
+        <v>16370</v>
       </c>
       <c r="T22">
-        <v>1300.3520000000001</v>
+        <v>817.02499999999998</v>
       </c>
       <c r="U22">
-        <v>5.5659999999999998</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="V22">
-        <v>176.34800000000001</v>
+        <v>52.901000000000003</v>
       </c>
       <c r="W22">
-        <v>-24.068999999999999</v>
+        <v>-9.2680000000000007</v>
       </c>
       <c r="X22">
-        <v>-50.546999999999997</v>
+        <v>2.391</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>116.745</v>
+        <v>65.337999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>100.098</v>
+        <v>48.98</v>
       </c>
       <c r="D23">
-        <v>1528.712</v>
+        <v>779.9</v>
       </c>
       <c r="E23">
-        <v>690.35199999999998</v>
+        <v>307.31299999999999</v>
       </c>
       <c r="F23">
-        <v>306.62900000000002</v>
+        <v>154.417</v>
       </c>
       <c r="G23">
-        <v>814.93</v>
+        <v>424.77300000000002</v>
       </c>
       <c r="H23">
-        <v>3646.9580000000001</v>
+        <v>1522.9010000000001</v>
       </c>
       <c r="I23">
-        <v>381.185</v>
+        <v>167.934</v>
       </c>
       <c r="J23">
-        <v>961.346</v>
+        <v>47.4</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="M23">
-        <v>-378.39699999999999</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>580.71400000000006</v>
+        <v>267.90800000000002</v>
       </c>
       <c r="O23">
-        <v>2360.8780000000002</v>
+        <v>662.43</v>
       </c>
       <c r="P23">
-        <v>961.346</v>
+        <v>47.4</v>
       </c>
       <c r="Q23">
-        <v>0.42599999999999999</v>
+        <v>1.409</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1286.08</v>
+        <v>860.471</v>
       </c>
       <c r="U23">
-        <v>5.992</v>
+        <v>8.8209999999999997</v>
       </c>
       <c r="V23">
-        <v>304.89600000000002</v>
+        <v>151.77600000000001</v>
       </c>
       <c r="W23">
-        <v>-24.81</v>
+        <v>-12.305999999999999</v>
       </c>
       <c r="X23">
-        <v>-190.01</v>
+        <v>-82.134</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>100.098</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>105.011</v>
+        <v>55.334000000000003</v>
       </c>
       <c r="D24">
-        <v>1615.0260000000001</v>
+        <v>838.25400000000002</v>
       </c>
       <c r="E24">
-        <v>744.02599999999995</v>
+        <v>325.30500000000001</v>
       </c>
       <c r="F24">
-        <v>315.32600000000002</v>
+        <v>173.197</v>
       </c>
       <c r="G24">
-        <v>827.00800000000004</v>
+        <v>420.19099999999997</v>
       </c>
       <c r="H24">
-        <v>3697.364</v>
+        <v>1544.5239999999999</v>
       </c>
       <c r="I24">
-        <v>343.65199999999999</v>
+        <v>176.994</v>
       </c>
       <c r="J24">
-        <v>957.57399999999996</v>
+        <v>177</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>552.71600000000001</v>
+        <v>289.59399999999999</v>
       </c>
       <c r="O24">
-        <v>2317.9389999999999</v>
+        <v>822.63199999999995</v>
       </c>
       <c r="P24">
-        <v>957.57399999999996</v>
+        <v>217</v>
       </c>
       <c r="Q24">
-        <v>5.2850000000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1379.425</v>
+        <v>721.89200000000005</v>
       </c>
       <c r="U24">
-        <v>11.276999999999999</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="V24">
-        <v>169.24199999999999</v>
+        <v>97.525999999999996</v>
       </c>
       <c r="W24">
-        <v>-24.788</v>
+        <v>-12.246</v>
       </c>
       <c r="X24">
-        <v>-20.452000000000002</v>
+        <v>-24.312999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>105.011</v>
+        <v>55.334000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>109.425</v>
+        <v>57.834000000000003</v>
       </c>
       <c r="D25">
-        <v>1690.6590000000001</v>
+        <v>858.26499999999999</v>
       </c>
       <c r="E25">
-        <v>775.02</v>
+        <v>343.47300000000001</v>
       </c>
       <c r="F25">
-        <v>328.53</v>
+        <v>177.93700000000001</v>
       </c>
       <c r="G25">
-        <v>842.40099999999995</v>
+        <v>439.29599999999999</v>
       </c>
       <c r="H25">
-        <v>3729.9940000000001</v>
+        <v>1710.81</v>
       </c>
       <c r="I25">
-        <v>402.91300000000001</v>
+        <v>177.251</v>
       </c>
       <c r="J25">
-        <v>943.69600000000003</v>
+        <v>166</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>600.84500000000003</v>
+        <v>478.29599999999999</v>
       </c>
       <c r="O25">
-        <v>2344.9110000000001</v>
+        <v>1007.7</v>
       </c>
       <c r="P25">
-        <v>943.69600000000003</v>
+        <v>380</v>
       </c>
       <c r="Q25">
-        <v>-5.7960000000000003</v>
+        <v>8.8659999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1385.0830000000001</v>
+        <v>703.11</v>
       </c>
       <c r="U25">
-        <v>5.4809999999999999</v>
+        <v>18.076000000000001</v>
       </c>
       <c r="V25">
-        <v>209.82499999999999</v>
+        <v>115.886</v>
       </c>
       <c r="W25">
-        <v>-24.879000000000001</v>
+        <v>-11.625</v>
       </c>
       <c r="X25">
-        <v>-114.815</v>
+        <v>86.384</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>109.425</v>
+        <v>57.834000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>117.556</v>
+        <v>57.804000000000002</v>
       </c>
       <c r="D26">
-        <v>1721.0619999999999</v>
+        <v>851.56799999999998</v>
       </c>
       <c r="E26">
-        <v>745.28800000000001</v>
+        <v>346.25099999999998</v>
       </c>
       <c r="F26">
-        <v>328.26100000000002</v>
+        <v>189.96799999999999</v>
       </c>
       <c r="G26">
-        <v>1067.42</v>
+        <v>471.24299999999999</v>
       </c>
       <c r="H26">
-        <v>3950.7269999999999</v>
+        <v>1770.057</v>
       </c>
       <c r="I26">
-        <v>384.30799999999999</v>
+        <v>170.672</v>
       </c>
       <c r="J26">
-        <v>986.27800000000002</v>
+        <v>182.4</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>694.87300000000005</v>
+        <v>478.73</v>
       </c>
       <c r="O26">
-        <v>2536.6660000000002</v>
+        <v>1010.32</v>
       </c>
       <c r="P26">
-        <v>986.27800000000002</v>
+        <v>396.4</v>
       </c>
       <c r="Q26">
-        <v>0.89600000000000002</v>
+        <v>-10.705</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>22190</v>
+        <v>17150</v>
       </c>
       <c r="T26">
-        <v>1414.0609999999999</v>
+        <v>759.73699999999997</v>
       </c>
       <c r="U26">
-        <v>6.3769999999999998</v>
+        <v>7.3710000000000004</v>
       </c>
       <c r="V26">
-        <v>170.18</v>
+        <v>57.875</v>
       </c>
       <c r="W26">
-        <v>-24.513000000000002</v>
+        <v>-11.557</v>
       </c>
       <c r="X26">
-        <v>-42.667000000000002</v>
+        <v>7.72</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>117.556</v>
+        <v>57.804000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>102.702</v>
+        <v>44.17</v>
       </c>
       <c r="D27">
-        <v>1629.1579999999999</v>
+        <v>797.45100000000002</v>
       </c>
       <c r="E27">
-        <v>707.43299999999999</v>
+        <v>329.75099999999998</v>
       </c>
       <c r="F27">
-        <v>298.74400000000003</v>
+        <v>164.67699999999999</v>
       </c>
       <c r="G27">
-        <v>893.34100000000001</v>
+        <v>429.42500000000001</v>
       </c>
       <c r="H27">
-        <v>3770.395</v>
+        <v>1773.386</v>
       </c>
       <c r="I27">
-        <v>369.76299999999998</v>
+        <v>175.16200000000001</v>
       </c>
       <c r="J27">
-        <v>953.75800000000004</v>
+        <v>285</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-696.5</v>
+        <v>-147.4</v>
       </c>
       <c r="N27">
-        <v>586.52499999999998</v>
+        <v>517.32000000000005</v>
       </c>
       <c r="O27">
-        <v>2398.1010000000001</v>
+        <v>1084.873</v>
       </c>
       <c r="P27">
-        <v>953.75800000000004</v>
+        <v>449</v>
       </c>
       <c r="Q27">
-        <v>5.8840000000000003</v>
+        <v>2.113</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1372.2940000000001</v>
+        <v>688.51300000000003</v>
       </c>
       <c r="U27">
-        <v>12.260999999999999</v>
+        <v>9.484</v>
       </c>
       <c r="V27">
-        <v>285.63299999999998</v>
+        <v>154.19499999999999</v>
       </c>
       <c r="W27">
-        <v>-25.602</v>
+        <v>-12.977</v>
       </c>
       <c r="X27">
-        <v>-185.27500000000001</v>
+        <v>-57.225000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>102.702</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>97.869</v>
+        <v>63.857999999999997</v>
       </c>
       <c r="D28">
-        <v>1726.915</v>
+        <v>855.86</v>
       </c>
       <c r="E28">
-        <v>749.04200000000003</v>
+        <v>351.00099999999998</v>
       </c>
       <c r="F28">
-        <v>316.75900000000001</v>
+        <v>181.59800000000001</v>
       </c>
       <c r="G28">
-        <v>908.351</v>
+        <v>423.23700000000002</v>
       </c>
       <c r="H28">
-        <v>3778.3820000000001</v>
+        <v>1831.8710000000001</v>
       </c>
       <c r="I28">
-        <v>419.30599999999998</v>
+        <v>180.06800000000001</v>
       </c>
       <c r="J28">
-        <v>943.17399999999998</v>
+        <v>469.5</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>608.09199999999998</v>
+        <v>515.20500000000004</v>
       </c>
       <c r="O28">
-        <v>2370.6610000000001</v>
+        <v>1275.375</v>
       </c>
       <c r="P28">
-        <v>943.17399999999998</v>
+        <v>703.5</v>
       </c>
       <c r="Q28">
-        <v>-4.9870000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1407.721</v>
+        <v>556.49599999999998</v>
       </c>
       <c r="U28">
-        <v>7.274</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="V28">
-        <v>157.81399999999999</v>
+        <v>56.45</v>
       </c>
       <c r="W28">
-        <v>-25.274999999999999</v>
+        <v>-12.637</v>
       </c>
       <c r="X28">
-        <v>-88.718999999999994</v>
+        <v>55.975000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>97.869</v>
+        <v>63.856999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>100.38500000000001</v>
+        <v>50.783000000000001</v>
       </c>
       <c r="D29">
-        <v>1843.3340000000001</v>
+        <v>891.63800000000003</v>
       </c>
       <c r="E29">
-        <v>858.72</v>
+        <v>359.22</v>
       </c>
       <c r="F29">
-        <v>327.52699999999999</v>
+        <v>185.09800000000001</v>
       </c>
       <c r="G29">
-        <v>1006.591</v>
+        <v>411.529</v>
       </c>
       <c r="H29">
-        <v>4053.9229999999998</v>
+        <v>1826.152</v>
       </c>
       <c r="I29">
-        <v>493.58499999999998</v>
+        <v>202.96799999999999</v>
       </c>
       <c r="J29">
-        <v>1086.3009999999999</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>681.755</v>
+        <v>535.69600000000003</v>
       </c>
       <c r="O29">
-        <v>2581.953</v>
+        <v>1466.877</v>
       </c>
       <c r="P29">
-        <v>1086.3009999999999</v>
+        <v>857.2</v>
       </c>
       <c r="Q29">
-        <v>0.433</v>
+        <v>-2.0609999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1471.97</v>
+        <v>359.27499999999998</v>
       </c>
       <c r="U29">
-        <v>7.7069999999999999</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="V29">
-        <v>185.102</v>
+        <v>152.30799999999999</v>
       </c>
       <c r="W29">
-        <v>-25.242999999999999</v>
+        <v>-11.945</v>
       </c>
       <c r="X29">
-        <v>102.884</v>
+        <v>-95.822999999999993</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>100.38500000000001</v>
+        <v>50.783000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>385.30700000000002</v>
+        <v>54.323</v>
       </c>
       <c r="D30">
-        <v>1990.16</v>
+        <v>944.95</v>
       </c>
       <c r="E30">
-        <v>920.76700000000005</v>
+        <v>330.202</v>
       </c>
       <c r="F30">
-        <v>358.55900000000003</v>
+        <v>193.95500000000001</v>
       </c>
       <c r="G30">
-        <v>1338.7280000000001</v>
+        <v>488.89400000000001</v>
       </c>
       <c r="H30">
-        <v>4465.3490000000002</v>
+        <v>1862.7460000000001</v>
       </c>
       <c r="I30">
-        <v>598.59400000000005</v>
+        <v>189.98699999999999</v>
       </c>
       <c r="J30">
-        <v>1087.049</v>
+        <v>679.1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>921.84400000000005</v>
+        <v>524.43200000000002</v>
       </c>
       <c r="O30">
-        <v>2626.0239999999999</v>
+        <v>1519.549</v>
       </c>
       <c r="P30">
-        <v>1087.049</v>
+        <v>913.1</v>
       </c>
       <c r="Q30">
-        <v>6.9050000000000002</v>
+        <v>10.843999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>24681</v>
+        <v>15795</v>
       </c>
       <c r="T30">
-        <v>1839.325</v>
+        <v>343.197</v>
       </c>
       <c r="U30">
-        <v>14.612</v>
+        <v>14.957000000000001</v>
       </c>
       <c r="V30">
-        <v>226.60400000000001</v>
+        <v>94.852000000000004</v>
       </c>
       <c r="W30">
-        <v>-25.242000000000001</v>
+        <v>-11.288</v>
       </c>
       <c r="X30">
-        <v>-24.526</v>
+        <v>-12.659000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-8.7560000000000002</v>
       </c>
       <c r="AA30">
-        <v>385.30700000000002</v>
+        <v>54.323</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>118.142</v>
+        <v>36.412999999999997</v>
       </c>
       <c r="D31">
-        <v>1948.2449999999999</v>
+        <v>878.38300000000004</v>
       </c>
       <c r="E31">
-        <v>900.90300000000002</v>
+        <v>340.42</v>
       </c>
       <c r="F31">
-        <v>346.77699999999999</v>
+        <v>157.97999999999999</v>
       </c>
       <c r="G31">
-        <v>1236.0640000000001</v>
+        <v>471.65699999999998</v>
       </c>
       <c r="H31">
-        <v>4421.6570000000002</v>
+        <v>1858.069</v>
       </c>
       <c r="I31">
-        <v>503.82900000000001</v>
+        <v>189.16399999999999</v>
       </c>
       <c r="J31">
-        <v>752.423</v>
+        <v>701.2</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-750.4</v>
+        <v>-47.927</v>
       </c>
       <c r="N31">
-        <v>1092.5160000000001</v>
+        <v>456.81</v>
       </c>
       <c r="O31">
-        <v>2478.5940000000001</v>
+        <v>1486.8720000000001</v>
       </c>
       <c r="P31">
-        <v>1000.032</v>
+        <v>865.2</v>
       </c>
       <c r="Q31">
-        <v>-7.53</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1943.0630000000001</v>
+        <v>371.197</v>
       </c>
       <c r="U31">
-        <v>7.0819999999999999</v>
+        <v>16.218</v>
       </c>
       <c r="V31">
-        <v>261.61799999999999</v>
+        <v>116.88800000000001</v>
       </c>
       <c r="W31">
-        <v>-26.341000000000001</v>
+        <v>-12.462</v>
       </c>
       <c r="X31">
-        <v>-89.804000000000002</v>
+        <v>-58.322000000000003</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>2.9359999999999999</v>
       </c>
       <c r="AA31">
-        <v>118.142</v>
+        <v>36.412999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>151.65199999999999</v>
+        <v>50.603999999999999</v>
       </c>
       <c r="D32">
-        <v>2139.027</v>
+        <v>977.33900000000006</v>
       </c>
       <c r="E32">
-        <v>1019.622</v>
+        <v>382.12099999999998</v>
       </c>
       <c r="F32">
-        <v>400.14600000000002</v>
+        <v>175.739</v>
       </c>
       <c r="G32">
-        <v>1307.421</v>
+        <v>466.34899999999999</v>
       </c>
       <c r="H32">
-        <v>4589.2430000000004</v>
+        <v>1859.8150000000001</v>
       </c>
       <c r="I32">
-        <v>551.71500000000003</v>
+        <v>188.32499999999999</v>
       </c>
       <c r="J32">
-        <v>755.57500000000005</v>
+        <v>615.70000000000005</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1158.537</v>
+        <v>502.82100000000003</v>
       </c>
       <c r="O32">
-        <v>2555.8809999999999</v>
+        <v>1433.56</v>
       </c>
       <c r="P32">
-        <v>1005.011</v>
+        <v>824.7</v>
       </c>
       <c r="Q32">
-        <v>8.109</v>
+        <v>-14.958</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2033.3620000000001</v>
+        <v>426.255</v>
       </c>
       <c r="U32">
-        <v>15.191000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="V32">
-        <v>267.41500000000002</v>
+        <v>86.623000000000005</v>
       </c>
       <c r="W32">
-        <v>-26.242000000000001</v>
+        <v>-12.484999999999999</v>
       </c>
       <c r="X32">
-        <v>-83.225999999999999</v>
+        <v>-52.542000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="AA32">
-        <v>151.65199999999999</v>
+        <v>50.603999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>131.11000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="D33">
-        <v>2209.7600000000002</v>
+        <v>996.43399999999997</v>
       </c>
       <c r="E33">
-        <v>1095.6379999999999</v>
+        <v>379.37200000000001</v>
       </c>
       <c r="F33">
-        <v>384.73500000000001</v>
+        <v>188.99100000000001</v>
       </c>
       <c r="G33">
-        <v>1342.482</v>
+        <v>438.86099999999999</v>
       </c>
       <c r="H33">
-        <v>4721.6710000000003</v>
+        <v>1803.8309999999999</v>
       </c>
       <c r="I33">
-        <v>569.45299999999997</v>
+        <v>182.80799999999999</v>
       </c>
       <c r="J33">
-        <v>820.86400000000003</v>
+        <v>545.20000000000005</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1212.6600000000001</v>
+        <v>436.12799999999999</v>
       </c>
       <c r="O33">
-        <v>2641.0929999999998</v>
+        <v>1320.934</v>
       </c>
       <c r="P33">
-        <v>1069.5440000000001</v>
+        <v>692.2</v>
       </c>
       <c r="Q33">
-        <v>-7.6040000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2080.578</v>
+        <v>482.89699999999999</v>
       </c>
       <c r="U33">
-        <v>7.5869999999999997</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="V33">
-        <v>248.57</v>
+        <v>146.167</v>
       </c>
       <c r="W33">
-        <v>-26.202000000000002</v>
+        <v>-12.592000000000001</v>
       </c>
       <c r="X33">
-        <v>-25.343</v>
+        <v>-134.017</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="AA33">
-        <v>131.11000000000001</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>88.680999999999997</v>
+        <v>53.276000000000003</v>
       </c>
       <c r="D34">
-        <v>2317.8420000000001</v>
+        <v>879.78700000000003</v>
       </c>
       <c r="E34">
-        <v>1051.6980000000001</v>
+        <v>280.61399999999998</v>
       </c>
       <c r="F34">
-        <v>329.01400000000001</v>
+        <v>172.292</v>
       </c>
       <c r="G34">
-        <v>1502.981</v>
+        <v>396.28699999999998</v>
       </c>
       <c r="H34">
-        <v>5091.6469999999999</v>
+        <v>1793.453</v>
       </c>
       <c r="I34">
-        <v>709.73599999999999</v>
+        <v>196.059</v>
       </c>
       <c r="J34">
-        <v>903.19799999999998</v>
+        <v>515</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1352.348</v>
+        <v>407.88799999999998</v>
       </c>
       <c r="O34">
-        <v>2990.2629999999999</v>
+        <v>1264.442</v>
       </c>
       <c r="P34">
-        <v>1153.904</v>
+        <v>635.4</v>
       </c>
       <c r="Q34">
-        <v>1.2999999999999999E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>27621</v>
+        <v>14667</v>
       </c>
       <c r="T34">
-        <v>2101.384</v>
+        <v>529.01099999999997</v>
       </c>
       <c r="U34">
-        <v>7.6</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="V34">
-        <v>310.238</v>
+        <v>155.46799999999999</v>
       </c>
       <c r="W34">
-        <v>-26.209</v>
+        <v>-12.605</v>
       </c>
       <c r="X34">
-        <v>-9.7070000000000007</v>
+        <v>-70.545000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="AA34">
-        <v>88.680999999999997</v>
+        <v>53.276000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>119.601</v>
+        <v>30.757999999999999</v>
       </c>
       <c r="D35">
-        <v>2089.627</v>
+        <v>722.83500000000004</v>
       </c>
       <c r="E35">
-        <v>1002.4829999999999</v>
+        <v>278.54300000000001</v>
       </c>
       <c r="F35">
-        <v>374.91699999999997</v>
+        <v>131.548</v>
       </c>
       <c r="G35">
-        <v>1438.1590000000001</v>
+        <v>372.69600000000003</v>
       </c>
       <c r="H35">
-        <v>5327.2820000000002</v>
+        <v>1781.377</v>
       </c>
       <c r="I35">
-        <v>594.70399999999995</v>
+        <v>157.608</v>
       </c>
       <c r="J35">
-        <v>1284.55</v>
+        <v>564</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1295.0999999999999</v>
+        <v>-365</v>
       </c>
       <c r="N35">
-        <v>998.23900000000003</v>
+        <v>327.15899999999999</v>
       </c>
       <c r="O35">
-        <v>3123.518</v>
+        <v>1230.181</v>
       </c>
       <c r="P35">
-        <v>1401.25</v>
+        <v>629</v>
       </c>
       <c r="Q35">
-        <v>44.762999999999998</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2203.7640000000001</v>
+        <v>551.19600000000003</v>
       </c>
       <c r="U35">
-        <v>52.363</v>
+        <v>3.5760000000000001</v>
       </c>
       <c r="V35">
-        <v>250.74100000000001</v>
+        <v>73.322000000000003</v>
       </c>
       <c r="W35">
-        <v>-28.271999999999998</v>
+        <v>-13.869</v>
       </c>
       <c r="X35">
-        <v>104.726</v>
+        <v>-18.754000000000001</v>
       </c>
       <c r="Y35">
-        <v>78.2</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA35">
-        <v>119.601</v>
+        <v>30.757999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>133.63300000000001</v>
+        <v>24.048999999999999</v>
       </c>
       <c r="D36">
-        <v>2261.6469999999999</v>
+        <v>769.78399999999999</v>
       </c>
       <c r="E36">
-        <v>1040.153</v>
+        <v>308.31299999999999</v>
       </c>
       <c r="F36">
-        <v>429.20499999999998</v>
+        <v>134.46600000000001</v>
       </c>
       <c r="G36">
-        <v>1384.364</v>
+        <v>386.23399999999998</v>
       </c>
       <c r="H36">
-        <v>5420.7389999999996</v>
+        <v>1820.886</v>
       </c>
       <c r="I36">
-        <v>640.32399999999996</v>
+        <v>173.125</v>
       </c>
       <c r="J36">
-        <v>1372.143</v>
+        <v>586.70000000000005</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1061.5219999999999</v>
+        <v>350.01</v>
       </c>
       <c r="O36">
-        <v>3285.3829999999998</v>
+        <v>1243.7470000000001</v>
       </c>
       <c r="P36">
-        <v>1495.5429999999999</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="Q36">
-        <v>-45.488</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2135.3560000000002</v>
+        <v>577.13900000000001</v>
       </c>
       <c r="U36">
-        <v>6.875</v>
+        <v>3.57</v>
       </c>
       <c r="V36">
-        <v>355.92</v>
+        <v>77.316000000000003</v>
       </c>
       <c r="W36">
-        <v>-28.006</v>
+        <v>-13.872999999999999</v>
       </c>
       <c r="X36">
-        <v>-138.19300000000001</v>
+        <v>12.917999999999999</v>
       </c>
       <c r="Y36">
-        <v>81.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="AA36">
-        <v>133.63300000000001</v>
+        <v>24.048999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>118.41</v>
+        <v>39.963000000000001</v>
       </c>
       <c r="D37">
-        <v>2363.66</v>
+        <v>833.74900000000002</v>
       </c>
       <c r="E37">
-        <v>1051.027</v>
+        <v>340.33</v>
       </c>
       <c r="F37">
-        <v>401.964</v>
+        <v>147.584</v>
       </c>
       <c r="G37">
-        <v>1383.4559999999999</v>
+        <v>401.90199999999999</v>
       </c>
       <c r="H37">
-        <v>5386.3370000000004</v>
+        <v>1858.095</v>
       </c>
       <c r="I37">
-        <v>654.95899999999995</v>
+        <v>180.71199999999999</v>
       </c>
       <c r="J37">
-        <v>1293.3119999999999</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1075.0239999999999</v>
+        <v>268.53300000000002</v>
       </c>
       <c r="O37">
-        <v>3192.808</v>
+        <v>1250.441</v>
       </c>
       <c r="P37">
-        <v>1415.212</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="Q37">
-        <v>68.257000000000005</v>
+        <v>1.141</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2193.529</v>
+        <v>607.654</v>
       </c>
       <c r="U37">
-        <v>75.132000000000005</v>
+        <v>4.7110000000000003</v>
       </c>
       <c r="V37">
-        <v>330.93400000000003</v>
+        <v>97.522000000000006</v>
       </c>
       <c r="W37">
-        <v>-27.809000000000001</v>
+        <v>-13.96</v>
       </c>
       <c r="X37">
-        <v>-151.68</v>
+        <v>-31.111000000000001</v>
       </c>
       <c r="Y37">
-        <v>79.7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AA37">
-        <v>118.41</v>
+        <v>39.963000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>144.67599999999999</v>
+        <v>41.664999999999999</v>
       </c>
       <c r="D38">
-        <v>2450.3240000000001</v>
+        <v>876.952</v>
       </c>
       <c r="E38">
-        <v>1011.829</v>
+        <v>310.339</v>
       </c>
       <c r="F38">
-        <v>431.404</v>
+        <v>149.637</v>
       </c>
       <c r="G38">
-        <v>1481.299</v>
+        <v>392.46499999999997</v>
       </c>
       <c r="H38">
-        <v>5470.8540000000003</v>
+        <v>1856.914</v>
       </c>
       <c r="I38">
-        <v>602.601</v>
+        <v>191.34700000000001</v>
       </c>
       <c r="J38">
-        <v>1295.74</v>
+        <v>565</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1035.7660000000001</v>
+        <v>269.21800000000002</v>
       </c>
       <c r="O38">
-        <v>3203.8249999999998</v>
+        <v>1213.0609999999999</v>
       </c>
       <c r="P38">
-        <v>1420.24</v>
+        <v>565</v>
       </c>
       <c r="Q38">
-        <v>-40.131999999999998</v>
+        <v>3.1320000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>29056</v>
+        <v>14171</v>
       </c>
       <c r="T38">
-        <v>2267.029</v>
+        <v>643.85299999999995</v>
       </c>
       <c r="U38">
-        <v>35</v>
+        <v>7.843</v>
       </c>
       <c r="V38">
-        <v>160.75200000000001</v>
+        <v>108.76300000000001</v>
       </c>
       <c r="W38">
-        <v>-27.73</v>
+        <v>-13.99</v>
       </c>
       <c r="X38">
-        <v>-81.837999999999994</v>
+        <v>-70.555000000000007</v>
       </c>
       <c r="Y38">
-        <v>80.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>5.641</v>
       </c>
       <c r="AA38">
-        <v>144.67599999999999</v>
+        <v>41.664999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>104.834</v>
+        <v>37.481999999999999</v>
       </c>
       <c r="D39">
-        <v>2280.826</v>
+        <v>844.673</v>
       </c>
       <c r="E39">
-        <v>978.28</v>
+        <v>341.65899999999999</v>
       </c>
       <c r="F39">
-        <v>387.97399999999999</v>
+        <v>140.196</v>
       </c>
       <c r="G39">
-        <v>1397.9690000000001</v>
+        <v>419.91300000000001</v>
       </c>
       <c r="H39">
-        <v>5380.0420000000004</v>
+        <v>1889.133</v>
       </c>
       <c r="I39">
-        <v>497.649</v>
+        <v>180.08500000000001</v>
       </c>
       <c r="J39">
-        <v>1302.7560000000001</v>
+        <v>341</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-220.1</v>
+        <v>-260.39999999999998</v>
       </c>
       <c r="N39">
-        <v>909.37599999999998</v>
+        <v>485.40699999999998</v>
       </c>
       <c r="O39">
-        <v>3097.6239999999998</v>
+        <v>1216.6179999999999</v>
       </c>
       <c r="P39">
-        <v>1432.6559999999999</v>
+        <v>541</v>
       </c>
       <c r="Q39">
-        <v>13.454000000000001</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2282.4180000000001</v>
+        <v>672.51499999999999</v>
       </c>
       <c r="U39">
-        <v>48.454000000000001</v>
+        <v>7.7869999999999999</v>
       </c>
       <c r="V39">
-        <v>249.16300000000001</v>
+        <v>86.674999999999997</v>
       </c>
       <c r="W39">
-        <v>-28.687999999999999</v>
+        <v>-15.271000000000001</v>
       </c>
       <c r="X39">
-        <v>-107.001</v>
+        <v>-38.99</v>
       </c>
       <c r="Y39">
-        <v>84.4</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>104.834</v>
+        <v>37.481999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>121.69799999999999</v>
+        <v>52.112000000000002</v>
       </c>
       <c r="D40">
-        <v>2145.5729999999999</v>
+        <v>942.77599999999995</v>
       </c>
       <c r="E40">
-        <v>950.63599999999997</v>
+        <v>363.66899999999998</v>
       </c>
       <c r="F40">
-        <v>394.54599999999999</v>
+        <v>167.67500000000001</v>
       </c>
       <c r="G40">
-        <v>1544.6969999999999</v>
+        <v>423.57100000000003</v>
       </c>
       <c r="H40">
-        <v>5553.6319999999996</v>
+        <v>1900.941</v>
       </c>
       <c r="I40">
-        <v>513.51700000000005</v>
+        <v>196.73</v>
       </c>
       <c r="J40">
-        <v>1307.019</v>
+        <v>417.1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>970.68200000000002</v>
+        <v>527.84699999999998</v>
       </c>
       <c r="O40">
-        <v>3162.7890000000002</v>
+        <v>1329.8820000000001</v>
       </c>
       <c r="P40">
-        <v>1455.519</v>
+        <v>617.1</v>
       </c>
       <c r="Q40">
-        <v>226.2</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2390.8429999999998</v>
+        <v>571.05899999999997</v>
       </c>
       <c r="U40">
-        <v>274.654</v>
+        <v>7.7140000000000004</v>
       </c>
       <c r="V40">
-        <v>390.78699999999998</v>
+        <v>122.155</v>
       </c>
       <c r="W40">
-        <v>-28.486999999999998</v>
+        <v>-14.981999999999999</v>
       </c>
       <c r="X40">
-        <v>-28.768999999999998</v>
+        <v>-65.971999999999994</v>
       </c>
       <c r="Y40">
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>121.69799999999999</v>
+        <v>52.113</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>125.496</v>
+        <v>52.17</v>
       </c>
       <c r="D41">
-        <v>2472.5230000000001</v>
+        <v>986.024</v>
       </c>
       <c r="E41">
-        <v>1121.825</v>
+        <v>371.12</v>
       </c>
       <c r="F41">
-        <v>398.89699999999999</v>
+        <v>172.77799999999999</v>
       </c>
       <c r="G41">
-        <v>1728.598</v>
+        <v>486.26499999999999</v>
       </c>
       <c r="H41">
-        <v>5779.0619999999999</v>
+        <v>1956.009</v>
       </c>
       <c r="I41">
-        <v>603.52300000000002</v>
+        <v>218.703</v>
       </c>
       <c r="J41">
-        <v>1303.3530000000001</v>
+        <v>449.16399999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1095.423</v>
+        <v>525.21600000000001</v>
       </c>
       <c r="O41">
-        <v>3291.6379999999999</v>
+        <v>1361.5509999999999</v>
       </c>
       <c r="P41">
-        <v>1442.8530000000001</v>
+        <v>649.16399999999999</v>
       </c>
       <c r="Q41">
-        <v>43.895000000000003</v>
+        <v>60.845999999999997</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2487.424</v>
+        <v>594.45799999999997</v>
       </c>
       <c r="U41">
-        <v>318.54899999999998</v>
+        <v>68.56</v>
       </c>
       <c r="V41">
-        <v>271.04399999999998</v>
+        <v>121.407</v>
       </c>
       <c r="W41">
-        <v>-28.533000000000001</v>
+        <v>-14.852</v>
       </c>
       <c r="X41">
-        <v>-43.003</v>
+        <v>-19.149000000000001</v>
       </c>
       <c r="Y41">
-        <v>93.2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>125.496</v>
+        <v>52.168999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>57.853000000000002</v>
+      </c>
+      <c r="D42">
+        <v>1020.0119999999999</v>
+      </c>
+      <c r="E42">
+        <v>351.18700000000001</v>
+      </c>
+      <c r="F42">
+        <v>176.23099999999999</v>
+      </c>
+      <c r="G42">
+        <v>462.64499999999998</v>
+      </c>
+      <c r="H42">
+        <v>1961.66</v>
+      </c>
+      <c r="I42">
+        <v>192.10300000000001</v>
+      </c>
+      <c r="J42">
+        <v>454.20699999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>509.94900000000001</v>
+      </c>
+      <c r="O42">
+        <v>1388.6389999999999</v>
+      </c>
+      <c r="P42">
+        <v>654.20699999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-60.908999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>15223</v>
+      </c>
+      <c r="T42">
+        <v>573.02099999999996</v>
+      </c>
+      <c r="U42">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="V42">
+        <v>97.840999999999994</v>
+      </c>
+      <c r="W42">
+        <v>-14.805</v>
+      </c>
+      <c r="X42">
+        <v>-78.143000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>57.853000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>50.094999999999999</v>
+      </c>
+      <c r="D43">
+        <v>1000.78</v>
+      </c>
+      <c r="E43">
+        <v>402.92200000000003</v>
+      </c>
+      <c r="F43">
+        <v>164.55500000000001</v>
+      </c>
+      <c r="G43">
+        <v>475.56700000000001</v>
+      </c>
+      <c r="H43">
+        <v>2040.3720000000001</v>
+      </c>
+      <c r="I43">
+        <v>249.73</v>
+      </c>
+      <c r="J43">
+        <v>649.24900000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-365.6</v>
+      </c>
+      <c r="N43">
+        <v>424.97699999999998</v>
+      </c>
+      <c r="O43">
+        <v>1481.106</v>
+      </c>
+      <c r="P43">
+        <v>698.24900000000002</v>
+      </c>
+      <c r="Q43">
+        <v>-2.258</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>559.26599999999996</v>
+      </c>
+      <c r="U43">
+        <v>5.3929999999999998</v>
+      </c>
+      <c r="V43">
+        <v>136.583</v>
+      </c>
+      <c r="W43">
+        <v>-15.752000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-26.483000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>50.094999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>65.695999999999998</v>
+      </c>
+      <c r="D44">
+        <v>1149.855</v>
+      </c>
+      <c r="E44">
+        <v>440.755</v>
+      </c>
+      <c r="F44">
+        <v>192.03399999999999</v>
+      </c>
+      <c r="G44">
+        <v>508.15100000000001</v>
+      </c>
+      <c r="H44">
+        <v>2120.8609999999999</v>
+      </c>
+      <c r="I44">
+        <v>270.96100000000001</v>
+      </c>
+      <c r="J44">
+        <v>649.29200000000003</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>446.13400000000001</v>
+      </c>
+      <c r="O44">
+        <v>1522.5219999999999</v>
+      </c>
+      <c r="P44">
+        <v>664.29200000000003</v>
+      </c>
+      <c r="Q44">
+        <v>5.7560000000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>598.33900000000006</v>
+      </c>
+      <c r="U44">
+        <v>11.148999999999999</v>
+      </c>
+      <c r="V44">
+        <v>171.09</v>
+      </c>
+      <c r="W44">
+        <v>-15.641</v>
+      </c>
+      <c r="X44">
+        <v>-66.814999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>65.695999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="D45">
+        <v>1171.27</v>
+      </c>
+      <c r="E45">
+        <v>424.63400000000001</v>
+      </c>
+      <c r="F45">
+        <v>197.33500000000001</v>
+      </c>
+      <c r="G45">
+        <v>477.39</v>
+      </c>
+      <c r="H45">
+        <v>2162.6559999999999</v>
+      </c>
+      <c r="I45">
+        <v>275.673</v>
+      </c>
+      <c r="J45">
+        <v>718.03399999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>487.21499999999997</v>
+      </c>
+      <c r="O45">
+        <v>1665.0250000000001</v>
+      </c>
+      <c r="P45">
+        <v>768.03399999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-3.4020000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>497.63099999999997</v>
+      </c>
+      <c r="U45">
+        <v>7.7469999999999999</v>
+      </c>
+      <c r="V45">
+        <v>180.536</v>
+      </c>
+      <c r="W45">
+        <v>-15.657999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-70.899000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>72.564999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1204.9369999999999</v>
+      </c>
+      <c r="E46">
+        <v>411.47899999999998</v>
+      </c>
+      <c r="F46">
+        <v>205.95</v>
+      </c>
+      <c r="G46">
+        <v>513.54200000000003</v>
+      </c>
+      <c r="H46">
+        <v>2267.3319999999999</v>
+      </c>
+      <c r="I46">
+        <v>251.625</v>
+      </c>
+      <c r="J46">
+        <v>699.17700000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>438.51499999999999</v>
+      </c>
+      <c r="O46">
+        <v>1699.789</v>
+      </c>
+      <c r="P46">
+        <v>749.17700000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-2.2970000000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>15631</v>
+      </c>
+      <c r="T46">
+        <v>567.54300000000001</v>
+      </c>
+      <c r="U46">
+        <v>5.45</v>
+      </c>
+      <c r="V46">
+        <v>147.483</v>
+      </c>
+      <c r="W46">
+        <v>-15.192</v>
+      </c>
+      <c r="X46">
+        <v>-28.167000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>72.564999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>67.683999999999997</v>
+      </c>
+      <c r="D47">
+        <v>1165.922</v>
+      </c>
+      <c r="E47">
+        <v>447.70600000000002</v>
+      </c>
+      <c r="F47">
+        <v>194.899</v>
+      </c>
+      <c r="G47">
+        <v>536.08600000000001</v>
+      </c>
+      <c r="H47">
+        <v>2322.8620000000001</v>
+      </c>
+      <c r="I47">
+        <v>301.63600000000002</v>
+      </c>
+      <c r="J47">
+        <v>602.11900000000003</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-383.30399999999997</v>
+      </c>
+      <c r="N47">
+        <v>543.41999999999996</v>
+      </c>
+      <c r="O47">
+        <v>1692.566</v>
+      </c>
+      <c r="P47">
+        <v>702.11900000000003</v>
+      </c>
+      <c r="Q47">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>630.29600000000005</v>
+      </c>
+      <c r="U47">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="V47">
+        <v>146.27199999999999</v>
+      </c>
+      <c r="W47">
+        <v>-16.385999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-62.243000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>67.683999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>80.451999999999998</v>
+      </c>
+      <c r="D48">
+        <v>1255.1300000000001</v>
+      </c>
+      <c r="E48">
+        <v>472.077</v>
+      </c>
+      <c r="F48">
+        <v>219.71600000000001</v>
+      </c>
+      <c r="G48">
+        <v>540.42499999999995</v>
+      </c>
+      <c r="H48">
+        <v>2365.2759999999998</v>
+      </c>
+      <c r="I48">
+        <v>298.58699999999999</v>
+      </c>
+      <c r="J48">
+        <v>579.46199999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>524.36099999999999</v>
+      </c>
+      <c r="O48">
+        <v>1652.0029999999999</v>
+      </c>
+      <c r="P48">
+        <v>679.46199999999999</v>
+      </c>
+      <c r="Q48">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>713.27300000000002</v>
+      </c>
+      <c r="U48">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="V48">
+        <v>114.307</v>
+      </c>
+      <c r="W48">
+        <v>-16.393999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-27.042999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>80.450999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>78.241</v>
+      </c>
+      <c r="D49">
+        <v>1295.7919999999999</v>
+      </c>
+      <c r="E49">
+        <v>504.25200000000001</v>
+      </c>
+      <c r="F49">
+        <v>221.39</v>
+      </c>
+      <c r="G49">
+        <v>563.25699999999995</v>
+      </c>
+      <c r="H49">
+        <v>2438.3420000000001</v>
+      </c>
+      <c r="I49">
+        <v>328.75700000000001</v>
+      </c>
+      <c r="J49">
+        <v>544.904</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>548.67499999999995</v>
+      </c>
+      <c r="O49">
+        <v>1657.152</v>
+      </c>
+      <c r="P49">
+        <v>644.904</v>
+      </c>
+      <c r="Q49">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>781.19</v>
+      </c>
+      <c r="U49">
+        <v>5.6589999999999998</v>
+      </c>
+      <c r="V49">
+        <v>156.76</v>
+      </c>
+      <c r="W49">
+        <v>-16.545000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-48.436999999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>78.241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>83.977000000000004</v>
+      </c>
+      <c r="D50">
+        <v>1338.136</v>
+      </c>
+      <c r="E50">
+        <v>466.01100000000002</v>
+      </c>
+      <c r="F50">
+        <v>233.886</v>
+      </c>
+      <c r="G50">
+        <v>554.53200000000004</v>
+      </c>
+      <c r="H50">
+        <v>2464.6410000000001</v>
+      </c>
+      <c r="I50">
+        <v>266.72199999999998</v>
+      </c>
+      <c r="J50">
+        <v>585.34699999999998</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>502.76</v>
+      </c>
+      <c r="O50">
+        <v>1672.7809999999999</v>
+      </c>
+      <c r="P50">
+        <v>685.34699999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>16475</v>
+      </c>
+      <c r="T50">
+        <v>791.86</v>
+      </c>
+      <c r="U50">
+        <v>5.5890000000000004</v>
+      </c>
+      <c r="V50">
+        <v>130.70500000000001</v>
+      </c>
+      <c r="W50">
+        <v>-34.106000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-40.588000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>83.977000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>73.349000000000004</v>
+      </c>
+      <c r="D51">
+        <v>1291.587</v>
+      </c>
+      <c r="E51">
+        <v>529.33299999999997</v>
+      </c>
+      <c r="F51">
+        <v>217.03700000000001</v>
+      </c>
+      <c r="G51">
+        <v>615.19799999999998</v>
+      </c>
+      <c r="H51">
+        <v>2586.1190000000001</v>
+      </c>
+      <c r="I51">
+        <v>374.96800000000002</v>
+      </c>
+      <c r="J51">
+        <v>393.28899999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-395.6</v>
+      </c>
+      <c r="N51">
+        <v>727.221</v>
+      </c>
+      <c r="O51">
+        <v>1710.347</v>
+      </c>
+      <c r="P51">
+        <v>593.28899999999999</v>
+      </c>
+      <c r="Q51">
+        <v>0.158</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>875.77200000000005</v>
+      </c>
+      <c r="U51">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="V51">
+        <v>206.75899999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-91.531000000000006</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>73.349000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>87.695999999999998</v>
+      </c>
+      <c r="D52">
+        <v>1382.8579999999999</v>
+      </c>
+      <c r="E52">
+        <v>579.64300000000003</v>
+      </c>
+      <c r="F52">
+        <v>242.268</v>
+      </c>
+      <c r="G52">
+        <v>651.56200000000001</v>
+      </c>
+      <c r="H52">
+        <v>2656.3159999999998</v>
+      </c>
+      <c r="I52">
+        <v>364.19499999999999</v>
+      </c>
+      <c r="J52">
+        <v>474.13200000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>699.10599999999999</v>
+      </c>
+      <c r="O52">
+        <v>1754.077</v>
+      </c>
+      <c r="P52">
+        <v>674.13199999999995</v>
+      </c>
+      <c r="Q52">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>902.23900000000003</v>
+      </c>
+      <c r="U52">
+        <v>5.923</v>
+      </c>
+      <c r="V52">
+        <v>86.811999999999998</v>
+      </c>
+      <c r="W52">
+        <v>-17.555</v>
+      </c>
+      <c r="X52">
+        <v>9.9870000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>87.697000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>89.472999999999999</v>
+      </c>
+      <c r="D53">
+        <v>1435.85</v>
+      </c>
+      <c r="E53">
+        <v>584.91399999999999</v>
+      </c>
+      <c r="F53">
+        <v>247.238</v>
+      </c>
+      <c r="G53">
+        <v>648.03200000000004</v>
+      </c>
+      <c r="H53">
+        <v>2712.4340000000002</v>
+      </c>
+      <c r="I53">
+        <v>304.79899999999998</v>
+      </c>
+      <c r="J53">
+        <v>437.47399999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>690.33799999999997</v>
+      </c>
+      <c r="O53">
+        <v>1731.9570000000001</v>
+      </c>
+      <c r="P53">
+        <v>687.47400000000005</v>
+      </c>
+      <c r="Q53">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>980.47699999999998</v>
+      </c>
+      <c r="U53">
+        <v>5.968</v>
+      </c>
+      <c r="V53">
+        <v>117.657</v>
+      </c>
+      <c r="W53">
+        <v>-17.670999999999999</v>
+      </c>
+      <c r="X53">
+        <v>4.3540000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>89.471999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>91.864000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1474.2760000000001</v>
+      </c>
+      <c r="E54">
+        <v>568.51900000000001</v>
+      </c>
+      <c r="F54">
+        <v>256.48</v>
+      </c>
+      <c r="G54">
+        <v>680.20299999999997</v>
+      </c>
+      <c r="H54">
+        <v>2819.404</v>
+      </c>
+      <c r="I54">
+        <v>305.46499999999997</v>
+      </c>
+      <c r="J54">
+        <v>458.41699999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>712.29600000000005</v>
+      </c>
+      <c r="O54">
+        <v>1806.952</v>
+      </c>
+      <c r="P54">
+        <v>708.41700000000003</v>
+      </c>
+      <c r="Q54">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>18467</v>
+      </c>
+      <c r="T54">
+        <v>1012.452</v>
+      </c>
+      <c r="U54">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="V54">
+        <v>163.12299999999999</v>
+      </c>
+      <c r="W54">
+        <v>-17.585000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-54.378</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>91.864000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>68.664000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1406.9079999999999</v>
+      </c>
+      <c r="E55">
+        <v>635.11099999999999</v>
+      </c>
+      <c r="F55">
+        <v>221.00399999999999</v>
+      </c>
+      <c r="G55">
+        <v>842.06799999999998</v>
+      </c>
+      <c r="H55">
+        <v>3115.7249999999999</v>
+      </c>
+      <c r="I55">
+        <v>371.23500000000001</v>
+      </c>
+      <c r="J55">
+        <v>752.20699999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-757.07799999999997</v>
+      </c>
+      <c r="N55">
+        <v>662.80399999999997</v>
+      </c>
+      <c r="O55">
+        <v>2047.6</v>
+      </c>
+      <c r="P55">
+        <v>852.20699999999999</v>
+      </c>
+      <c r="Q55">
+        <v>118.381</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1068.125</v>
+      </c>
+      <c r="U55">
+        <v>124.212</v>
+      </c>
+      <c r="V55">
+        <v>159.04499999999999</v>
+      </c>
+      <c r="W55">
+        <v>-23.45</v>
+      </c>
+      <c r="X55">
+        <v>117.548</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>68.664000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>93.406999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1547.867</v>
+      </c>
+      <c r="E56">
+        <v>667.62</v>
+      </c>
+      <c r="F56">
+        <v>272.03899999999999</v>
+      </c>
+      <c r="G56">
+        <v>739.22500000000002</v>
+      </c>
+      <c r="H56">
+        <v>3091.3589999999999</v>
+      </c>
+      <c r="I56">
+        <v>338.06299999999999</v>
+      </c>
+      <c r="J56">
+        <v>874.02800000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>514.63400000000001</v>
+      </c>
+      <c r="O56">
+        <v>2010.242</v>
+      </c>
+      <c r="P56">
+        <v>874.02800000000002</v>
+      </c>
+      <c r="Q56">
+        <v>-118.342</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1081.117</v>
+      </c>
+      <c r="U56">
+        <v>5.87</v>
+      </c>
+      <c r="V56">
+        <v>141.95599999999999</v>
+      </c>
+      <c r="W56">
+        <v>-23.297000000000001</v>
+      </c>
+      <c r="X56">
+        <v>-65.667000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>93.408000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>102.41500000000001</v>
+      </c>
+      <c r="D57">
+        <v>1601.1559999999999</v>
+      </c>
+      <c r="E57">
+        <v>671.298</v>
+      </c>
+      <c r="F57">
+        <v>294.37</v>
+      </c>
+      <c r="G57">
+        <v>737.678</v>
+      </c>
+      <c r="H57">
+        <v>3158.9180000000001</v>
+      </c>
+      <c r="I57">
+        <v>352.64499999999998</v>
+      </c>
+      <c r="J57">
+        <v>589.774</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>790.29200000000003</v>
+      </c>
+      <c r="O57">
+        <v>1999.0989999999999</v>
+      </c>
+      <c r="P57">
+        <v>839.774</v>
+      </c>
+      <c r="Q57">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1159.819</v>
+      </c>
+      <c r="U57">
+        <v>5.859</v>
+      </c>
+      <c r="V57">
+        <v>185.364</v>
+      </c>
+      <c r="W57">
+        <v>-23.42</v>
+      </c>
+      <c r="X57">
+        <v>-59.014000000000003</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>102.414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>110.306</v>
+      </c>
+      <c r="D58">
+        <v>1609.511</v>
+      </c>
+      <c r="E58">
+        <v>653.79499999999996</v>
+      </c>
+      <c r="F58">
+        <v>309.08199999999999</v>
+      </c>
+      <c r="G58">
+        <v>861.49900000000002</v>
+      </c>
+      <c r="H58">
+        <v>3378.4859999999999</v>
+      </c>
+      <c r="I58">
+        <v>325.83800000000002</v>
+      </c>
+      <c r="J58">
+        <v>683.53899999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>771.07</v>
+      </c>
+      <c r="O58">
+        <v>2173.9630000000002</v>
+      </c>
+      <c r="P58">
+        <v>933.53899999999999</v>
+      </c>
+      <c r="Q58">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>20158</v>
+      </c>
+      <c r="T58">
+        <v>1204.5229999999999</v>
+      </c>
+      <c r="U58">
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="V58">
+        <v>160.41399999999999</v>
+      </c>
+      <c r="W58">
+        <v>-23.437000000000001</v>
+      </c>
+      <c r="X58">
+        <v>20.164999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>110.306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>91.932000000000002</v>
+      </c>
+      <c r="D59">
+        <v>1440.18</v>
+      </c>
+      <c r="E59">
+        <v>631.17200000000003</v>
+      </c>
+      <c r="F59">
+        <v>278.04700000000003</v>
+      </c>
+      <c r="G59">
+        <v>803.51199999999994</v>
+      </c>
+      <c r="H59">
+        <v>3428.9969999999998</v>
+      </c>
+      <c r="I59">
+        <v>328.11099999999999</v>
+      </c>
+      <c r="J59">
+        <v>628.20299999999997</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-505.07100000000003</v>
+      </c>
+      <c r="N59">
+        <v>762.33100000000002</v>
+      </c>
+      <c r="O59">
+        <v>2151.6170000000002</v>
+      </c>
+      <c r="P59">
+        <v>878.20299999999997</v>
+      </c>
+      <c r="Q59">
+        <v>-0.314</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1277.3800000000001</v>
+      </c>
+      <c r="U59">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="V59">
+        <v>255.54300000000001</v>
+      </c>
+      <c r="W59">
+        <v>-24.468</v>
+      </c>
+      <c r="X59">
+        <v>-94.513000000000005</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>91.932000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>103.419</v>
+      </c>
+      <c r="D60">
+        <v>1539.9570000000001</v>
+      </c>
+      <c r="E60">
+        <v>665.24099999999999</v>
+      </c>
+      <c r="F60">
+        <v>314.00700000000001</v>
+      </c>
+      <c r="G60">
+        <v>786.63</v>
+      </c>
+      <c r="H60">
+        <v>3485.35</v>
+      </c>
+      <c r="I60">
+        <v>341.52</v>
+      </c>
+      <c r="J60">
+        <v>643.202</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>776.60500000000002</v>
+      </c>
+      <c r="O60">
+        <v>2146.145</v>
+      </c>
+      <c r="P60">
+        <v>893.202</v>
+      </c>
+      <c r="Q60">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1339.2049999999999</v>
+      </c>
+      <c r="U60">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="V60">
+        <v>197.994</v>
+      </c>
+      <c r="W60">
+        <v>-24.477</v>
+      </c>
+      <c r="X60">
+        <v>-40.055999999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>103.419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>115.139</v>
+      </c>
+      <c r="D61">
+        <v>1586.4939999999999</v>
+      </c>
+      <c r="E61">
+        <v>671.39800000000002</v>
+      </c>
+      <c r="F61">
+        <v>325.67399999999998</v>
+      </c>
+      <c r="G61">
+        <v>768.17100000000005</v>
+      </c>
+      <c r="H61">
+        <v>3519.2640000000001</v>
+      </c>
+      <c r="I61">
+        <v>355.67099999999999</v>
+      </c>
+      <c r="J61">
+        <v>993.35299999999995</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>544.048</v>
+      </c>
+      <c r="O61">
+        <v>2270.0770000000002</v>
+      </c>
+      <c r="P61">
+        <v>993.35299999999995</v>
+      </c>
+      <c r="Q61">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1249.1869999999999</v>
+      </c>
+      <c r="U61">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="V61">
+        <v>243.423</v>
+      </c>
+      <c r="W61">
+        <v>-24.35</v>
+      </c>
+      <c r="X61">
+        <v>-112.05500000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>115.139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>116.745</v>
+      </c>
+      <c r="D62">
+        <v>1621.0150000000001</v>
+      </c>
+      <c r="E62">
+        <v>624.29399999999998</v>
+      </c>
+      <c r="F62">
+        <v>326.87200000000001</v>
+      </c>
+      <c r="G62">
+        <v>857.92499999999995</v>
+      </c>
+      <c r="H62">
+        <v>3629.5439999999999</v>
+      </c>
+      <c r="I62">
+        <v>340.33199999999999</v>
+      </c>
+      <c r="J62">
+        <v>998.00300000000004</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>532.41700000000003</v>
+      </c>
+      <c r="O62">
+        <v>2329.192</v>
+      </c>
+      <c r="P62">
+        <v>998.00300000000004</v>
+      </c>
+      <c r="Q62">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>21562</v>
+      </c>
+      <c r="T62">
+        <v>1300.3520000000001</v>
+      </c>
+      <c r="U62">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="V62">
+        <v>176.34800000000001</v>
+      </c>
+      <c r="W62">
+        <v>-24.068999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-50.546999999999997</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>116.745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>100.098</v>
+      </c>
+      <c r="D63">
+        <v>1528.712</v>
+      </c>
+      <c r="E63">
+        <v>690.35199999999998</v>
+      </c>
+      <c r="F63">
+        <v>306.62900000000002</v>
+      </c>
+      <c r="G63">
+        <v>814.93</v>
+      </c>
+      <c r="H63">
+        <v>3646.9580000000001</v>
+      </c>
+      <c r="I63">
+        <v>381.185</v>
+      </c>
+      <c r="J63">
+        <v>961.346</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-378.39699999999999</v>
+      </c>
+      <c r="N63">
+        <v>580.71400000000006</v>
+      </c>
+      <c r="O63">
+        <v>2360.8780000000002</v>
+      </c>
+      <c r="P63">
+        <v>961.346</v>
+      </c>
+      <c r="Q63">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1286.08</v>
+      </c>
+      <c r="U63">
+        <v>5.992</v>
+      </c>
+      <c r="V63">
+        <v>304.89600000000002</v>
+      </c>
+      <c r="W63">
+        <v>-24.81</v>
+      </c>
+      <c r="X63">
+        <v>-190.01</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>100.098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>105.011</v>
+      </c>
+      <c r="D64">
+        <v>1615.0260000000001</v>
+      </c>
+      <c r="E64">
+        <v>744.02599999999995</v>
+      </c>
+      <c r="F64">
+        <v>315.32600000000002</v>
+      </c>
+      <c r="G64">
+        <v>827.00800000000004</v>
+      </c>
+      <c r="H64">
+        <v>3697.364</v>
+      </c>
+      <c r="I64">
+        <v>343.65199999999999</v>
+      </c>
+      <c r="J64">
+        <v>957.57399999999996</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>552.71600000000001</v>
+      </c>
+      <c r="O64">
+        <v>2317.9389999999999</v>
+      </c>
+      <c r="P64">
+        <v>957.57399999999996</v>
+      </c>
+      <c r="Q64">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1379.425</v>
+      </c>
+      <c r="U64">
+        <v>11.276999999999999</v>
+      </c>
+      <c r="V64">
+        <v>169.24199999999999</v>
+      </c>
+      <c r="W64">
+        <v>-24.788</v>
+      </c>
+      <c r="X64">
+        <v>-20.452000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>105.011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>109.425</v>
+      </c>
+      <c r="D65">
+        <v>1690.6590000000001</v>
+      </c>
+      <c r="E65">
+        <v>775.02</v>
+      </c>
+      <c r="F65">
+        <v>328.53</v>
+      </c>
+      <c r="G65">
+        <v>842.40099999999995</v>
+      </c>
+      <c r="H65">
+        <v>3729.9940000000001</v>
+      </c>
+      <c r="I65">
+        <v>402.91300000000001</v>
+      </c>
+      <c r="J65">
+        <v>943.69600000000003</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>600.84500000000003</v>
+      </c>
+      <c r="O65">
+        <v>2344.9110000000001</v>
+      </c>
+      <c r="P65">
+        <v>943.69600000000003</v>
+      </c>
+      <c r="Q65">
+        <v>-5.7960000000000003</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1385.0830000000001</v>
+      </c>
+      <c r="U65">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="V65">
+        <v>209.82499999999999</v>
+      </c>
+      <c r="W65">
+        <v>-24.879000000000001</v>
+      </c>
+      <c r="X65">
+        <v>-114.815</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>109.425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>117.556</v>
+      </c>
+      <c r="D66">
+        <v>1721.0619999999999</v>
+      </c>
+      <c r="E66">
+        <v>745.28800000000001</v>
+      </c>
+      <c r="F66">
+        <v>328.26100000000002</v>
+      </c>
+      <c r="G66">
+        <v>1067.42</v>
+      </c>
+      <c r="H66">
+        <v>3950.7269999999999</v>
+      </c>
+      <c r="I66">
+        <v>384.30799999999999</v>
+      </c>
+      <c r="J66">
+        <v>986.27800000000002</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>694.87300000000005</v>
+      </c>
+      <c r="O66">
+        <v>2536.6660000000002</v>
+      </c>
+      <c r="P66">
+        <v>986.27800000000002</v>
+      </c>
+      <c r="Q66">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>22190</v>
+      </c>
+      <c r="T66">
+        <v>1414.0609999999999</v>
+      </c>
+      <c r="U66">
+        <v>6.3769999999999998</v>
+      </c>
+      <c r="V66">
+        <v>170.18</v>
+      </c>
+      <c r="W66">
+        <v>-24.513000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-42.667000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>117.556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>102.702</v>
+      </c>
+      <c r="D67">
+        <v>1629.1579999999999</v>
+      </c>
+      <c r="E67">
+        <v>707.43299999999999</v>
+      </c>
+      <c r="F67">
+        <v>298.74400000000003</v>
+      </c>
+      <c r="G67">
+        <v>893.34100000000001</v>
+      </c>
+      <c r="H67">
+        <v>3770.395</v>
+      </c>
+      <c r="I67">
+        <v>369.76299999999998</v>
+      </c>
+      <c r="J67">
+        <v>953.75800000000004</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-696.5</v>
+      </c>
+      <c r="N67">
+        <v>586.52499999999998</v>
+      </c>
+      <c r="O67">
+        <v>2398.1010000000001</v>
+      </c>
+      <c r="P67">
+        <v>953.75800000000004</v>
+      </c>
+      <c r="Q67">
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1372.2940000000001</v>
+      </c>
+      <c r="U67">
+        <v>12.260999999999999</v>
+      </c>
+      <c r="V67">
+        <v>285.63299999999998</v>
+      </c>
+      <c r="W67">
+        <v>-25.602</v>
+      </c>
+      <c r="X67">
+        <v>-185.27500000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>102.702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>97.869</v>
+      </c>
+      <c r="D68">
+        <v>1726.915</v>
+      </c>
+      <c r="E68">
+        <v>749.04200000000003</v>
+      </c>
+      <c r="F68">
+        <v>316.75900000000001</v>
+      </c>
+      <c r="G68">
+        <v>908.351</v>
+      </c>
+      <c r="H68">
+        <v>3778.3820000000001</v>
+      </c>
+      <c r="I68">
+        <v>419.30599999999998</v>
+      </c>
+      <c r="J68">
+        <v>943.17399999999998</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>608.09199999999998</v>
+      </c>
+      <c r="O68">
+        <v>2370.6610000000001</v>
+      </c>
+      <c r="P68">
+        <v>943.17399999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-4.9870000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1407.721</v>
+      </c>
+      <c r="U68">
+        <v>7.274</v>
+      </c>
+      <c r="V68">
+        <v>157.81399999999999</v>
+      </c>
+      <c r="W68">
+        <v>-25.274999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-88.718999999999994</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>97.869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>100.38500000000001</v>
+      </c>
+      <c r="D69">
+        <v>1843.3340000000001</v>
+      </c>
+      <c r="E69">
+        <v>858.72</v>
+      </c>
+      <c r="F69">
+        <v>327.52699999999999</v>
+      </c>
+      <c r="G69">
+        <v>1006.591</v>
+      </c>
+      <c r="H69">
+        <v>4053.9229999999998</v>
+      </c>
+      <c r="I69">
+        <v>493.58499999999998</v>
+      </c>
+      <c r="J69">
+        <v>1086.3009999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>681.755</v>
+      </c>
+      <c r="O69">
+        <v>2581.953</v>
+      </c>
+      <c r="P69">
+        <v>1086.3009999999999</v>
+      </c>
+      <c r="Q69">
+        <v>0.433</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1471.97</v>
+      </c>
+      <c r="U69">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="V69">
+        <v>185.102</v>
+      </c>
+      <c r="W69">
+        <v>-25.242999999999999</v>
+      </c>
+      <c r="X69">
+        <v>102.884</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>100.38500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>385.30700000000002</v>
+      </c>
+      <c r="D70">
+        <v>1990.16</v>
+      </c>
+      <c r="E70">
+        <v>920.76700000000005</v>
+      </c>
+      <c r="F70">
+        <v>358.55900000000003</v>
+      </c>
+      <c r="G70">
+        <v>1338.7280000000001</v>
+      </c>
+      <c r="H70">
+        <v>4465.3490000000002</v>
+      </c>
+      <c r="I70">
+        <v>598.59400000000005</v>
+      </c>
+      <c r="J70">
+        <v>1087.049</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>921.84400000000005</v>
+      </c>
+      <c r="O70">
+        <v>2626.0239999999999</v>
+      </c>
+      <c r="P70">
+        <v>1087.049</v>
+      </c>
+      <c r="Q70">
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>24681</v>
+      </c>
+      <c r="T70">
+        <v>1839.325</v>
+      </c>
+      <c r="U70">
+        <v>14.612</v>
+      </c>
+      <c r="V70">
+        <v>226.60400000000001</v>
+      </c>
+      <c r="W70">
+        <v>-25.242000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-24.526</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>385.30700000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>118.142</v>
+      </c>
+      <c r="D71">
+        <v>1948.2449999999999</v>
+      </c>
+      <c r="E71">
+        <v>900.90300000000002</v>
+      </c>
+      <c r="F71">
+        <v>346.77699999999999</v>
+      </c>
+      <c r="G71">
+        <v>1236.0640000000001</v>
+      </c>
+      <c r="H71">
+        <v>4421.6570000000002</v>
+      </c>
+      <c r="I71">
+        <v>503.82900000000001</v>
+      </c>
+      <c r="J71">
+        <v>752.423</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-750.4</v>
+      </c>
+      <c r="N71">
+        <v>1092.5160000000001</v>
+      </c>
+      <c r="O71">
+        <v>2478.5940000000001</v>
+      </c>
+      <c r="P71">
+        <v>1000.032</v>
+      </c>
+      <c r="Q71">
+        <v>-7.53</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1943.0630000000001</v>
+      </c>
+      <c r="U71">
+        <v>7.0819999999999999</v>
+      </c>
+      <c r="V71">
+        <v>261.61799999999999</v>
+      </c>
+      <c r="W71">
+        <v>-26.341000000000001</v>
+      </c>
+      <c r="X71">
+        <v>-89.804000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>118.142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>151.65199999999999</v>
+      </c>
+      <c r="D72">
+        <v>2139.027</v>
+      </c>
+      <c r="E72">
+        <v>1019.622</v>
+      </c>
+      <c r="F72">
+        <v>400.14600000000002</v>
+      </c>
+      <c r="G72">
+        <v>1307.421</v>
+      </c>
+      <c r="H72">
+        <v>4589.2430000000004</v>
+      </c>
+      <c r="I72">
+        <v>551.71500000000003</v>
+      </c>
+      <c r="J72">
+        <v>755.57500000000005</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1158.537</v>
+      </c>
+      <c r="O72">
+        <v>2555.8809999999999</v>
+      </c>
+      <c r="P72">
+        <v>1005.011</v>
+      </c>
+      <c r="Q72">
+        <v>8.109</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2033.3620000000001</v>
+      </c>
+      <c r="U72">
+        <v>15.191000000000001</v>
+      </c>
+      <c r="V72">
+        <v>267.41500000000002</v>
+      </c>
+      <c r="W72">
+        <v>-26.242000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-83.225999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>151.65199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>131.11000000000001</v>
+      </c>
+      <c r="D73">
+        <v>2209.7600000000002</v>
+      </c>
+      <c r="E73">
+        <v>1095.6379999999999</v>
+      </c>
+      <c r="F73">
+        <v>384.73500000000001</v>
+      </c>
+      <c r="G73">
+        <v>1342.482</v>
+      </c>
+      <c r="H73">
+        <v>4721.6710000000003</v>
+      </c>
+      <c r="I73">
+        <v>569.45299999999997</v>
+      </c>
+      <c r="J73">
+        <v>820.86400000000003</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1212.6600000000001</v>
+      </c>
+      <c r="O73">
+        <v>2641.0929999999998</v>
+      </c>
+      <c r="P73">
+        <v>1069.5440000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-7.6040000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2080.578</v>
+      </c>
+      <c r="U73">
+        <v>7.5869999999999997</v>
+      </c>
+      <c r="V73">
+        <v>248.57</v>
+      </c>
+      <c r="W73">
+        <v>-26.202000000000002</v>
+      </c>
+      <c r="X73">
+        <v>-25.343</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>131.11000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>88.680999999999997</v>
+      </c>
+      <c r="D74">
+        <v>2317.8420000000001</v>
+      </c>
+      <c r="E74">
+        <v>1051.6980000000001</v>
+      </c>
+      <c r="F74">
+        <v>329.01400000000001</v>
+      </c>
+      <c r="G74">
+        <v>1502.981</v>
+      </c>
+      <c r="H74">
+        <v>5091.6469999999999</v>
+      </c>
+      <c r="I74">
+        <v>709.73599999999999</v>
+      </c>
+      <c r="J74">
+        <v>903.19799999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1352.348</v>
+      </c>
+      <c r="O74">
+        <v>2990.2629999999999</v>
+      </c>
+      <c r="P74">
+        <v>1153.904</v>
+      </c>
+      <c r="Q74">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>27621</v>
+      </c>
+      <c r="T74">
+        <v>2101.384</v>
+      </c>
+      <c r="U74">
+        <v>7.6</v>
+      </c>
+      <c r="V74">
+        <v>310.238</v>
+      </c>
+      <c r="W74">
+        <v>-26.209</v>
+      </c>
+      <c r="X74">
+        <v>-9.7070000000000007</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>88.680999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>119.601</v>
+      </c>
+      <c r="D75">
+        <v>2089.627</v>
+      </c>
+      <c r="E75">
+        <v>1002.4829999999999</v>
+      </c>
+      <c r="F75">
+        <v>374.91699999999997</v>
+      </c>
+      <c r="G75">
+        <v>1438.1590000000001</v>
+      </c>
+      <c r="H75">
+        <v>5327.2820000000002</v>
+      </c>
+      <c r="I75">
+        <v>594.70399999999995</v>
+      </c>
+      <c r="J75">
+        <v>1284.55</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1295.0999999999999</v>
+      </c>
+      <c r="N75">
+        <v>998.23900000000003</v>
+      </c>
+      <c r="O75">
+        <v>3123.518</v>
+      </c>
+      <c r="P75">
+        <v>1401.25</v>
+      </c>
+      <c r="Q75">
+        <v>44.762999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2203.7640000000001</v>
+      </c>
+      <c r="U75">
+        <v>52.363</v>
+      </c>
+      <c r="V75">
+        <v>250.74100000000001</v>
+      </c>
+      <c r="W75">
+        <v>-28.271999999999998</v>
+      </c>
+      <c r="X75">
+        <v>104.726</v>
+      </c>
+      <c r="Y75">
+        <v>78.2</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>119.601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>133.63300000000001</v>
+      </c>
+      <c r="D76">
+        <v>2261.6469999999999</v>
+      </c>
+      <c r="E76">
+        <v>1040.153</v>
+      </c>
+      <c r="F76">
+        <v>429.20499999999998</v>
+      </c>
+      <c r="G76">
+        <v>1384.364</v>
+      </c>
+      <c r="H76">
+        <v>5420.7389999999996</v>
+      </c>
+      <c r="I76">
+        <v>640.32399999999996</v>
+      </c>
+      <c r="J76">
+        <v>1372.143</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1061.5219999999999</v>
+      </c>
+      <c r="O76">
+        <v>3285.3829999999998</v>
+      </c>
+      <c r="P76">
+        <v>1495.5429999999999</v>
+      </c>
+      <c r="Q76">
+        <v>-45.488</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2135.3560000000002</v>
+      </c>
+      <c r="U76">
+        <v>6.875</v>
+      </c>
+      <c r="V76">
+        <v>355.92</v>
+      </c>
+      <c r="W76">
+        <v>-28.006</v>
+      </c>
+      <c r="X76">
+        <v>-138.19300000000001</v>
+      </c>
+      <c r="Y76">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>133.63300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>118.41</v>
+      </c>
+      <c r="D77">
+        <v>2363.66</v>
+      </c>
+      <c r="E77">
+        <v>1051.027</v>
+      </c>
+      <c r="F77">
+        <v>401.964</v>
+      </c>
+      <c r="G77">
+        <v>1383.4559999999999</v>
+      </c>
+      <c r="H77">
+        <v>5386.3370000000004</v>
+      </c>
+      <c r="I77">
+        <v>654.95899999999995</v>
+      </c>
+      <c r="J77">
+        <v>1293.3119999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1075.0239999999999</v>
+      </c>
+      <c r="O77">
+        <v>3192.808</v>
+      </c>
+      <c r="P77">
+        <v>1415.212</v>
+      </c>
+      <c r="Q77">
+        <v>68.257000000000005</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2193.529</v>
+      </c>
+      <c r="U77">
+        <v>75.132000000000005</v>
+      </c>
+      <c r="V77">
+        <v>330.93400000000003</v>
+      </c>
+      <c r="W77">
+        <v>-27.809000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-151.68</v>
+      </c>
+      <c r="Y77">
+        <v>79.7</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>118.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>144.67599999999999</v>
+      </c>
+      <c r="D78">
+        <v>2450.3240000000001</v>
+      </c>
+      <c r="E78">
+        <v>1011.829</v>
+      </c>
+      <c r="F78">
+        <v>431.404</v>
+      </c>
+      <c r="G78">
+        <v>1481.299</v>
+      </c>
+      <c r="H78">
+        <v>5470.8540000000003</v>
+      </c>
+      <c r="I78">
+        <v>602.601</v>
+      </c>
+      <c r="J78">
+        <v>1295.74</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1035.7660000000001</v>
+      </c>
+      <c r="O78">
+        <v>3203.8249999999998</v>
+      </c>
+      <c r="P78">
+        <v>1420.24</v>
+      </c>
+      <c r="Q78">
+        <v>-40.131999999999998</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>29056</v>
+      </c>
+      <c r="T78">
+        <v>2267.029</v>
+      </c>
+      <c r="U78">
+        <v>35</v>
+      </c>
+      <c r="V78">
+        <v>160.75200000000001</v>
+      </c>
+      <c r="W78">
+        <v>-27.73</v>
+      </c>
+      <c r="X78">
+        <v>-81.837999999999994</v>
+      </c>
+      <c r="Y78">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>144.67599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>104.834</v>
+      </c>
+      <c r="D79">
+        <v>2280.826</v>
+      </c>
+      <c r="E79">
+        <v>978.28</v>
+      </c>
+      <c r="F79">
+        <v>387.97399999999999</v>
+      </c>
+      <c r="G79">
+        <v>1397.9690000000001</v>
+      </c>
+      <c r="H79">
+        <v>5380.0420000000004</v>
+      </c>
+      <c r="I79">
+        <v>497.649</v>
+      </c>
+      <c r="J79">
+        <v>1302.7560000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-220.1</v>
+      </c>
+      <c r="N79">
+        <v>909.37599999999998</v>
+      </c>
+      <c r="O79">
+        <v>3097.6239999999998</v>
+      </c>
+      <c r="P79">
+        <v>1432.6559999999999</v>
+      </c>
+      <c r="Q79">
+        <v>13.454000000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2282.4180000000001</v>
+      </c>
+      <c r="U79">
+        <v>48.454000000000001</v>
+      </c>
+      <c r="V79">
+        <v>249.16300000000001</v>
+      </c>
+      <c r="W79">
+        <v>-28.687999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-107.001</v>
+      </c>
+      <c r="Y79">
+        <v>84.4</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>104.834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>121.69799999999999</v>
+      </c>
+      <c r="D80">
+        <v>2145.5729999999999</v>
+      </c>
+      <c r="E80">
+        <v>950.63599999999997</v>
+      </c>
+      <c r="F80">
+        <v>394.54599999999999</v>
+      </c>
+      <c r="G80">
+        <v>1544.6969999999999</v>
+      </c>
+      <c r="H80">
+        <v>5553.6319999999996</v>
+      </c>
+      <c r="I80">
+        <v>513.51700000000005</v>
+      </c>
+      <c r="J80">
+        <v>1307.019</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>970.68200000000002</v>
+      </c>
+      <c r="O80">
+        <v>3162.7890000000002</v>
+      </c>
+      <c r="P80">
+        <v>1455.519</v>
+      </c>
+      <c r="Q80">
+        <v>226.2</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2390.8429999999998</v>
+      </c>
+      <c r="U80">
+        <v>274.654</v>
+      </c>
+      <c r="V80">
+        <v>390.78699999999998</v>
+      </c>
+      <c r="W80">
+        <v>-28.486999999999998</v>
+      </c>
+      <c r="X80">
+        <v>-28.768999999999998</v>
+      </c>
+      <c r="Y80">
+        <v>100.8</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>121.69799999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>125.496</v>
+      </c>
+      <c r="D81">
+        <v>2472.5230000000001</v>
+      </c>
+      <c r="E81">
+        <v>1121.825</v>
+      </c>
+      <c r="F81">
+        <v>398.89699999999999</v>
+      </c>
+      <c r="G81">
+        <v>1728.598</v>
+      </c>
+      <c r="H81">
+        <v>5779.0619999999999</v>
+      </c>
+      <c r="I81">
+        <v>603.52300000000002</v>
+      </c>
+      <c r="J81">
+        <v>1303.3530000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1095.423</v>
+      </c>
+      <c r="O81">
+        <v>3291.6379999999999</v>
+      </c>
+      <c r="P81">
+        <v>1442.8530000000001</v>
+      </c>
+      <c r="Q81">
+        <v>43.895000000000003</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2487.424</v>
+      </c>
+      <c r="U81">
+        <v>318.54899999999998</v>
+      </c>
+      <c r="V81">
+        <v>271.04399999999998</v>
+      </c>
+      <c r="W81">
+        <v>-28.533000000000001</v>
+      </c>
+      <c r="X81">
+        <v>-43.003</v>
+      </c>
+      <c r="Y81">
+        <v>93.2</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>125.496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>154.00700000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2737.652</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1124.403</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>440.27600000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1842.117</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>5928.348</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>587.51</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1305.424</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1084.8030000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3328.21</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1440.924</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-5.2469999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>30309</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2600.1379999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>313.30200000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>211.86500000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-28.526</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-52.826999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>87.2</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>154.00700000000001</v>
       </c>
     </row>
